--- a/apps/timonel-twim-ss/lib/nb-twi-cmd/extras/Nicebots-Pluggie-I2C-Commands.xlsx
+++ b/apps/timonel-twim-ss/lib/nb-twi-cmd/extras/Nicebots-Pluggie-I2C-Commands.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casanovg\source\Repos\GitHub\nb-twi-cmd\extras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casanovg\source\Repos\GitHub\timonel\apps\timonel-twim-ss\lib\nb-twi-cmd\extras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F32B78-1692-403A-8D58-9CD5B0ABCE67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A1FABE-96D9-438B-A5FA-E6B994ABEB8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1005" windowWidth="22065" windowHeight="13905" xr2:uid="{E9ADF2F8-A332-4D3D-AE91-D80A529ABDA6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{E9ADF2F8-A332-4D3D-AE91-D80A529ABDA6}"/>
   </bookViews>
   <sheets>
     <sheet name="NB Command Set" sheetId="1" r:id="rId1"/>
@@ -39,11 +39,60 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Gustavo</author>
     <author>Author</author>
-    <author>Gustavo</author>
   </authors>
   <commentList>
-    <comment ref="AJ8" authorId="0" shapeId="0" xr:uid="{1297055F-0665-4C9B-8DDB-91E0AF341B89}">
+    <comment ref="AJ7" authorId="0" shapeId="0" xr:uid="{6C59D700-1496-4624-A6E5-C4BF50DAA010}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gustavo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Comments on commands are from the I2C "master" side.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK7" authorId="0" shapeId="0" xr:uid="{5D007516-FBF7-4B4C-A310-6FB025DD086B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gustavo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Comments on replies are from the I2C "slave" side.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ8" authorId="1" shapeId="0" xr:uid="{1297055F-0665-4C9B-8DDB-91E0AF341B89}">
       <text>
         <r>
           <rPr>
@@ -68,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK8" authorId="0" shapeId="0" xr:uid="{85A85EFF-B2E0-4A56-AAC2-EBD078EA423A}">
+    <comment ref="AK8" authorId="1" shapeId="0" xr:uid="{85A85EFF-B2E0-4A56-AAC2-EBD078EA423A}">
       <text>
         <r>
           <rPr>
@@ -93,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ9" authorId="0" shapeId="0" xr:uid="{1FAC0628-1FEE-4FFB-92CC-1A5A87F5E27C}">
+    <comment ref="AJ9" authorId="1" shapeId="0" xr:uid="{1FAC0628-1FEE-4FFB-92CC-1A5A87F5E27C}">
       <text>
         <r>
           <rPr>
@@ -118,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK9" authorId="0" shapeId="0" xr:uid="{4BB5DC29-8958-4BC6-86E0-7D664013D444}">
+    <comment ref="AK9" authorId="1" shapeId="0" xr:uid="{4BB5DC29-8958-4BC6-86E0-7D664013D444}">
       <text>
         <r>
           <rPr>
@@ -143,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ10" authorId="0" shapeId="0" xr:uid="{B01C3796-168D-490B-A73D-BEE798FA8513}">
+    <comment ref="AJ10" authorId="1" shapeId="0" xr:uid="{B01C3796-168D-490B-A73D-BEE798FA8513}">
       <text>
         <r>
           <rPr>
@@ -168,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK10" authorId="0" shapeId="0" xr:uid="{2DC9BFCD-6B5C-4831-8722-826AF4BB9AC1}">
+    <comment ref="AK10" authorId="1" shapeId="0" xr:uid="{2DC9BFCD-6B5C-4831-8722-826AF4BB9AC1}">
       <text>
         <r>
           <rPr>
@@ -193,7 +242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ11" authorId="0" shapeId="0" xr:uid="{CEA8B3DA-7827-4765-92B8-0DE0A7DEB593}">
+    <comment ref="AJ11" authorId="1" shapeId="0" xr:uid="{CEA8B3DA-7827-4765-92B8-0DE0A7DEB593}">
       <text>
         <r>
           <rPr>
@@ -218,7 +267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK11" authorId="0" shapeId="0" xr:uid="{0B952837-07D6-4FDB-AEA6-C1905659717E}">
+    <comment ref="AK11" authorId="1" shapeId="0" xr:uid="{0B952837-07D6-4FDB-AEA6-C1905659717E}">
       <text>
         <r>
           <rPr>
@@ -240,16 +289,22 @@
           <t xml:space="preserve">
 Reply:
 - 1 byte Command Ack (~Command).
-- 1 byte "N" character.
-- 1 byte "B" character.
-- 1 byte "T" character.
-- 1 byte Major version number.
-- 1 byte Minor version number.
-- 1 byte CRC.</t>
+- 1 byte "T" character (Timonel signature).
+- 1 byte Bootloader major version number.
+- 1 byte Bootloader minor version number.
+- 1 byte Optional features settings.
+- 1 byte Extended optional features settings.
+- 1 byte Bootloader start address (MSB).
+- 1 byte Bootloader start address (LSB).
+- 1 byte Application start addr on the trampoline (MSB).
+- 1 byte Application start addr on the trampoline (LSB).
+- 1 byte AVR Low fuse bits settings.
+- 1 byte Internal RC oscillator calibration value.
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="AJ12" authorId="0" shapeId="0" xr:uid="{BFD197D7-0ED2-462A-A3D0-E1E9360B2C83}">
+    <comment ref="AJ12" authorId="1" shapeId="0" xr:uid="{BFD197D7-0ED2-462A-A3D0-E1E9360B2C83}">
       <text>
         <r>
           <rPr>
@@ -274,7 +329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK12" authorId="0" shapeId="0" xr:uid="{7EEAE5E2-14B6-4B79-9AAB-6D5C86F1C67F}">
+    <comment ref="AK12" authorId="1" shapeId="0" xr:uid="{7EEAE5E2-14B6-4B79-9AAB-6D5C86F1C67F}">
       <text>
         <r>
           <rPr>
@@ -299,7 +354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ13" authorId="0" shapeId="0" xr:uid="{9594E035-456D-4387-968F-599B9F8822D4}">
+    <comment ref="AJ13" authorId="1" shapeId="0" xr:uid="{9594E035-456D-4387-968F-599B9F8822D4}">
       <text>
         <r>
           <rPr>
@@ -323,12 +378,12 @@
 - 1 byte OpCode.
 - 1 byte Base Address MSB.
 - 1 byte Base Address LSB.
-- 1 byte Checksum.
+- 1 byte Checksum ((uint8_t ) Sum of MSB and LSB of the page address).
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="AK13" authorId="0" shapeId="0" xr:uid="{C6227238-A058-4E69-A3C2-490283B79CA8}">
+    <comment ref="AK13" authorId="1" shapeId="0" xr:uid="{C6227238-A058-4E69-A3C2-490283B79CA8}">
       <text>
         <r>
           <rPr>
@@ -350,11 +405,11 @@
           <t xml:space="preserve">
 Reply:
 - 1 byte Command Ack (~Command).
-- 1 byte Checksum check result (0 = Correct).</t>
+- 1 byte Checksum (Sum of MSB and LSB of the received page address).</t>
         </r>
       </text>
     </comment>
-    <comment ref="AJ14" authorId="0" shapeId="0" xr:uid="{B36936F9-9247-402A-8213-968F874E51C1}">
+    <comment ref="AJ14" authorId="1" shapeId="0" xr:uid="{B36936F9-9247-402A-8213-968F874E51C1}">
       <text>
         <r>
           <rPr>
@@ -376,14 +431,14 @@
           <t xml:space="preserve">
 Command:
 - 1 byte OpCode.
-- 4 bytes Data (1 byte for each 8-bit value).
-- 1 byte Checksum.
-This command is to be executed 16 times to fill a 64 byte-page.
+- N bytes Data (1 byte for each 8-bit value).
+- 1 byte Checksum ((uint8_t) Sum of all data bytes).
+If MST_PACKET_SIZE = 32, this command is to be executed 2 times to fill a 64-byte flash memory page.
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="AK14" authorId="0" shapeId="0" xr:uid="{B91513A8-5769-41A2-B4B1-361B132F40A1}">
+    <comment ref="AK14" authorId="1" shapeId="0" xr:uid="{B91513A8-5769-41A2-B4B1-361B132F40A1}">
       <text>
         <r>
           <rPr>
@@ -405,11 +460,11 @@
           <t xml:space="preserve">
 Reply:
 - 1 byte Command Ack (~Command).
-- 1 byte Checksum check result (0 = Correct).</t>
+- 1 byte Checksum ((uint8_t) Sum of all data bytes received).</t>
         </r>
       </text>
     </comment>
-    <comment ref="AJ15" authorId="0" shapeId="0" xr:uid="{6ABDBCAF-029E-434C-B930-05A6F35E6086}">
+    <comment ref="AJ15" authorId="1" shapeId="0" xr:uid="{6ABDBCAF-029E-434C-B930-05A6F35E6086}">
       <text>
         <r>
           <rPr>
@@ -434,7 +489,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK15" authorId="0" shapeId="0" xr:uid="{EBEA4A41-892B-4701-9297-6DBD919205EA}">
+    <comment ref="AK15" authorId="1" shapeId="0" xr:uid="{EBEA4A41-892B-4701-9297-6DBD919205EA}">
       <text>
         <r>
           <rPr>
@@ -459,7 +514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ16" authorId="0" shapeId="0" xr:uid="{619F7588-9A1D-4BE9-A58B-F6CE94BEDE5E}">
+    <comment ref="AJ16" authorId="1" shapeId="0" xr:uid="{619F7588-9A1D-4BE9-A58B-F6CE94BEDE5E}">
       <text>
         <r>
           <rPr>
@@ -488,7 +543,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK16" authorId="0" shapeId="0" xr:uid="{1974E21E-0E6A-4B78-9C25-5F8B8DDF22CA}">
+    <comment ref="AK16" authorId="1" shapeId="0" xr:uid="{1974E21E-0E6A-4B78-9C25-5F8B8DDF22CA}">
       <text>
         <r>
           <rPr>
@@ -511,11 +566,12 @@
           <t>Reply:
 - 1 byte Command Ack (~Command).
 - N bytes Data (1 byte for each 8-bit value).
-- 1 byte Checksum.</t>
+- 1 byte Checksum ((uint8_t) Sum of all data sent + MSB and LSB of the address received in the request).
+If SLV_PACKET_SIZE = 32, this command is to be executed 256 times to dump an ATtiny85 full flash memory.</t>
         </r>
       </text>
     </comment>
-    <comment ref="AJ17" authorId="0" shapeId="0" xr:uid="{C9FA0E77-FC7E-4C4C-BDFF-C08713455FAE}">
+    <comment ref="AJ17" authorId="1" shapeId="0" xr:uid="{C9FA0E77-FC7E-4C4C-BDFF-C08713455FAE}">
       <text>
         <r>
           <rPr>
@@ -540,7 +596,153 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ27" authorId="0" shapeId="0" xr:uid="{D813C955-5EF2-4A96-B1EB-DE076C27FCAE}">
+    <comment ref="AK17" authorId="1" shapeId="0" xr:uid="{B853E230-8B2E-4B94-87C0-46A31137AB18}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gustavo Casanova:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Reply:
+- 1 byte Command Ack (~Command).
+- 1 byte Low fuse bits settings.
+- 1 byte High fuse bits settings.
+- 1 byte Extended fuse bits settings.
+- 1 byte Lock bits settings.
+- 1 byte Device signature byte 0.
+- 1 byte Device signature byte 1.
+- 1 byte Device signature byte 2.
+- 1 byte Calibration data for internal oscillator at 8.0 MHz.
+- 1 byte Calibration data for internal oscillator at 6.4 MHz.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ18" authorId="1" shapeId="0" xr:uid="{97321FE1-0A34-43F8-B639-F8165E330CE6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gustavo Casanova:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Command:
+- 1 byte OpCode.
+- 1 byte EEPROM Address MSB.
+- 1 byte EEPROM Address LSB.
+- 1 byte Data.
+- 1 byte Checksum ((uint8_t ) Sum of MSB, LSB of the EEPROM address and data byte).
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK18" authorId="1" shapeId="0" xr:uid="{52864375-539F-4CF4-8490-F9B683511B77}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gustavo Casanova:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Reply:
+- 1 byte Command Ack (~Command).
+- 1 byte Checksum ((uint8_t ) Sum of MSB, LSB of the EEPROM address and data byte received).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ19" authorId="1" shapeId="0" xr:uid="{2332EC96-8414-47A3-9EED-062D13359E99}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gustavo Casanova:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Command:
+- 1 byte OpCode.
+- 1 byte EEPROM Address MSB.
+- 1 byte EEPROM Address LSB.
+- 1 byte Checksum ((uint8_t ) Sum of MSB and LSB of the EEPROM address).
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK19" authorId="1" shapeId="0" xr:uid="{690EBE21-A13E-49F4-BBBD-63D262E2D6DF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Gustavo Casanova:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Reply:
+- 1 byte Command Ack (~Command).
+- 1 byte Data (1 byte for each 8-bit value).
+- 1 byte Checksum ((uint8_t) Sum of data byte sent + MSB and LSB of the EEPROM address received in the request).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ27" authorId="1" shapeId="0" xr:uid="{D813C955-5EF2-4A96-B1EB-DE076C27FCAE}">
       <text>
         <r>
           <rPr>
@@ -565,7 +767,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK27" authorId="0" shapeId="0" xr:uid="{8D8C9D87-C771-482C-A2E7-E02B1D3E1E7F}">
+    <comment ref="AK27" authorId="1" shapeId="0" xr:uid="{8D8C9D87-C771-482C-A2E7-E02B1D3E1E7F}">
       <text>
         <r>
           <rPr>
@@ -590,7 +792,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ28" authorId="0" shapeId="0" xr:uid="{C0474DC8-B1C0-422D-A263-D34B0515CA47}">
+    <comment ref="AJ28" authorId="1" shapeId="0" xr:uid="{C0474DC8-B1C0-422D-A263-D34B0515CA47}">
       <text>
         <r>
           <rPr>
@@ -615,7 +817,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK28" authorId="0" shapeId="0" xr:uid="{497222D2-242F-46C6-8D7A-4261039B9BD0}">
+    <comment ref="AK28" authorId="1" shapeId="0" xr:uid="{497222D2-242F-46C6-8D7A-4261039B9BD0}">
       <text>
         <r>
           <rPr>
@@ -640,7 +842,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ68" authorId="1" shapeId="0" xr:uid="{6F597E43-EA2B-45C7-9912-7AF4608761D7}">
+    <comment ref="AJ68" authorId="0" shapeId="0" xr:uid="{6F597E43-EA2B-45C7-9912-7AF4608761D7}">
       <text>
         <r>
           <rPr>
@@ -668,7 +870,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK68" authorId="0" shapeId="0" xr:uid="{5A1E1E0C-6E61-4D71-B5A3-0F56953946A0}">
+    <comment ref="AK68" authorId="1" shapeId="0" xr:uid="{5A1E1E0C-6E61-4D71-B5A3-0F56953946A0}">
       <text>
         <r>
           <rPr>
@@ -694,7 +896,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ87" authorId="0" shapeId="0" xr:uid="{6315BC2D-8CAC-43B0-88B7-D0AEA967C49F}">
+    <comment ref="AJ87" authorId="1" shapeId="0" xr:uid="{6315BC2D-8CAC-43B0-88B7-D0AEA967C49F}">
       <text>
         <r>
           <rPr>
@@ -719,7 +921,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK87" authorId="0" shapeId="0" xr:uid="{2A26D9DE-64EE-40EF-BCA4-A2E16D0254B9}">
+    <comment ref="AK87" authorId="1" shapeId="0" xr:uid="{2A26D9DE-64EE-40EF-BCA4-A2E16D0254B9}">
       <text>
         <r>
           <rPr>
@@ -747,7 +949,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ95" authorId="0" shapeId="0" xr:uid="{2196E32E-76F9-46C5-B6D3-DABDD9C3E289}">
+    <comment ref="AJ95" authorId="1" shapeId="0" xr:uid="{2196E32E-76F9-46C5-B6D3-DABDD9C3E289}">
       <text>
         <r>
           <rPr>
@@ -772,7 +974,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK95" authorId="0" shapeId="0" xr:uid="{54D02B12-7117-4944-8765-86BA71A88032}">
+    <comment ref="AK95" authorId="1" shapeId="0" xr:uid="{54D02B12-7117-4944-8765-86BA71A88032}">
       <text>
         <r>
           <rPr>
@@ -797,7 +999,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ96" authorId="0" shapeId="0" xr:uid="{A20E2665-5F2D-4492-A56C-9DEB73846B41}">
+    <comment ref="AJ96" authorId="1" shapeId="0" xr:uid="{A20E2665-5F2D-4492-A56C-9DEB73846B41}">
       <text>
         <r>
           <rPr>
@@ -822,7 +1024,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK96" authorId="0" shapeId="0" xr:uid="{E17B509D-6E42-4699-B452-BECD6A830229}">
+    <comment ref="AK96" authorId="1" shapeId="0" xr:uid="{E17B509D-6E42-4699-B452-BECD6A830229}">
       <text>
         <r>
           <rPr>
@@ -847,7 +1049,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ97" authorId="0" shapeId="0" xr:uid="{C08A7A0F-98E4-4D2C-9A5A-8267CD04A752}">
+    <comment ref="AJ97" authorId="1" shapeId="0" xr:uid="{C08A7A0F-98E4-4D2C-9A5A-8267CD04A752}">
       <text>
         <r>
           <rPr>
@@ -872,7 +1074,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK97" authorId="0" shapeId="0" xr:uid="{3F0E843F-D242-45B3-8247-561A4FC15C63}">
+    <comment ref="AK97" authorId="1" shapeId="0" xr:uid="{3F0E843F-D242-45B3-8247-561A4FC15C63}">
       <text>
         <r>
           <rPr>
@@ -897,7 +1099,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ98" authorId="0" shapeId="0" xr:uid="{AABD1514-465E-4B9B-836C-459599B1CDD5}">
+    <comment ref="AJ98" authorId="1" shapeId="0" xr:uid="{AABD1514-465E-4B9B-836C-459599B1CDD5}">
       <text>
         <r>
           <rPr>
@@ -922,7 +1124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK98" authorId="0" shapeId="0" xr:uid="{306CE71B-C239-40BC-B29B-2F7636B3DA2E}">
+    <comment ref="AK98" authorId="1" shapeId="0" xr:uid="{306CE71B-C239-40BC-B29B-2F7636B3DA2E}">
       <text>
         <r>
           <rPr>
@@ -947,7 +1149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ99" authorId="0" shapeId="0" xr:uid="{631BFBE7-1734-4989-97D0-E3702CC46414}">
+    <comment ref="AJ99" authorId="1" shapeId="0" xr:uid="{631BFBE7-1734-4989-97D0-E3702CC46414}">
       <text>
         <r>
           <rPr>
@@ -975,7 +1177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK99" authorId="0" shapeId="0" xr:uid="{4524CEE3-CDEA-449A-BFFB-12EE740F326A}">
+    <comment ref="AK99" authorId="1" shapeId="0" xr:uid="{4524CEE3-CDEA-449A-BFFB-12EE740F326A}">
       <text>
         <r>
           <rPr>
@@ -1002,7 +1204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ100" authorId="0" shapeId="0" xr:uid="{D811FA7C-8682-4323-A974-8F4095C3EFC1}">
+    <comment ref="AJ100" authorId="1" shapeId="0" xr:uid="{D811FA7C-8682-4323-A974-8F4095C3EFC1}">
       <text>
         <r>
           <rPr>
@@ -1031,7 +1233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK100" authorId="0" shapeId="0" xr:uid="{A4E2CBAA-804D-49F2-A4B2-ABA3AB2BEE01}">
+    <comment ref="AK100" authorId="1" shapeId="0" xr:uid="{A4E2CBAA-804D-49F2-A4B2-ABA3AB2BEE01}">
       <text>
         <r>
           <rPr>
@@ -1062,7 +1264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="504">
   <si>
     <t>NB Command Set</t>
   </si>
@@ -1151,9 +1353,6 @@
     <t>ACKTMNLV</t>
   </si>
   <si>
-    <t>6 + CRC</t>
-  </si>
-  <si>
     <t>DELETE FLASH</t>
   </si>
   <si>
@@ -1163,9 +1362,6 @@
     <t>ACKDELFL</t>
   </si>
   <si>
-    <t>SET PAGE BASE ADDRESS</t>
-  </si>
-  <si>
     <t>STPGADDR</t>
   </si>
   <si>
@@ -1212,24 +1408,6 @@
   </si>
   <si>
     <t>NO</t>
-  </si>
-  <si>
-    <t>UNASSIGNED BOOTLOADER CMD 11</t>
-  </si>
-  <si>
-    <t>BLRCMD02</t>
-  </si>
-  <si>
-    <t>ACKBLC02</t>
-  </si>
-  <si>
-    <t>UNASSIGNED BOOTLOADER CMD 12</t>
-  </si>
-  <si>
-    <t>BLRCMD03</t>
-  </si>
-  <si>
-    <t>ACKBLC03</t>
   </si>
   <si>
     <t>UNASSIGNED BOOTLOADER CMD 13</t>
@@ -2585,9 +2763,6 @@
     <t>NO OPERATION - UNKNOWN</t>
   </si>
   <si>
-    <t>READ DEVICE SIGNATURE</t>
-  </si>
-  <si>
     <t>READDEVS</t>
   </si>
   <si>
@@ -2610,6 +2785,33 @@
   </si>
   <si>
     <t>#endif  // _NB_TWI_CMD_H_</t>
+  </si>
+  <si>
+    <t>READ DEVICE SIGNATURE AND FUSES</t>
+  </si>
+  <si>
+    <t>WRITEEPR</t>
+  </si>
+  <si>
+    <t>WRITE BYTE TO EEPROM</t>
+  </si>
+  <si>
+    <t>READ BYTE FROM EEPROM</t>
+  </si>
+  <si>
+    <t>ACKWTEEP</t>
+  </si>
+  <si>
+    <t>READEEPR</t>
+  </si>
+  <si>
+    <t>ACKRDEEP</t>
+  </si>
+  <si>
+    <t>SET FLASH PAGE BASE ADDRESS</t>
+  </si>
+  <si>
+    <t>3 + Data + Csum</t>
   </si>
 </sst>
 </file>
@@ -2619,7 +2821,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2757,6 +2959,12 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -3856,7 +4064,7 @@
         <v>1</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="AF3" s="5"/>
       <c r="AG3" s="6">
@@ -4199,11 +4407,11 @@
       </c>
       <c r="AA8" s="33"/>
       <c r="AB8" s="35" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="AC8" s="35"/>
       <c r="AD8" s="33" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="AE8" s="33" t="str">
         <f>Y8</f>
@@ -4602,8 +4810,8 @@
       <c r="AJ11" s="37">
         <v>1</v>
       </c>
-      <c r="AK11" s="37" t="s">
-        <v>29</v>
+      <c r="AK11" s="37">
+        <v>12</v>
       </c>
       <c r="AL11" s="38" t="s">
         <v>19</v>
@@ -4707,11 +4915,11 @@
       </c>
       <c r="AA12" s="37"/>
       <c r="AB12" s="49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC12" s="36"/>
       <c r="AD12" s="47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AE12" s="47" t="str">
         <f t="shared" si="9"/>
@@ -4719,7 +4927,7 @@
       </c>
       <c r="AF12" s="36"/>
       <c r="AG12" s="47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AH12" s="47" t="str">
         <f t="shared" si="10"/>
@@ -4834,11 +5042,11 @@
       </c>
       <c r="AA13" s="37"/>
       <c r="AB13" s="49" t="s">
-        <v>33</v>
+        <v>502</v>
       </c>
       <c r="AC13" s="36"/>
       <c r="AD13" s="47" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE13" s="47" t="str">
         <f t="shared" si="9"/>
@@ -4846,7 +5054,7 @@
       </c>
       <c r="AF13" s="36"/>
       <c r="AG13" s="47" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH13" s="47" t="str">
         <f t="shared" si="10"/>
@@ -4854,10 +5062,10 @@
       </c>
       <c r="AI13" s="36"/>
       <c r="AJ13" s="37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK13" s="37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AL13" s="38" t="s">
         <v>19</v>
@@ -4961,11 +5169,11 @@
       </c>
       <c r="AA14" s="37"/>
       <c r="AB14" s="49" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AC14" s="36"/>
       <c r="AD14" s="47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AE14" s="47" t="str">
         <f t="shared" si="9"/>
@@ -4973,7 +5181,7 @@
       </c>
       <c r="AF14" s="36"/>
       <c r="AG14" s="47" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AH14" s="47" t="str">
         <f t="shared" si="10"/>
@@ -4981,10 +5189,10 @@
       </c>
       <c r="AI14" s="36"/>
       <c r="AJ14" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AK14" s="37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AL14" s="38" t="s">
         <v>19</v>
@@ -5088,11 +5296,11 @@
       </c>
       <c r="AA15" s="37"/>
       <c r="AB15" s="49" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AC15" s="36"/>
       <c r="AD15" s="47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AE15" s="47" t="str">
         <f t="shared" si="9"/>
@@ -5100,7 +5308,7 @@
       </c>
       <c r="AF15" s="36"/>
       <c r="AG15" s="47" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AH15" s="47" t="str">
         <f t="shared" si="10"/>
@@ -5215,11 +5423,11 @@
       </c>
       <c r="AA16" s="37"/>
       <c r="AB16" s="49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AC16" s="36"/>
       <c r="AD16" s="47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AE16" s="47" t="str">
         <f t="shared" si="9"/>
@@ -5227,7 +5435,7 @@
       </c>
       <c r="AF16" s="36"/>
       <c r="AG16" s="47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AH16" s="47" t="str">
         <f t="shared" si="10"/>
@@ -5238,7 +5446,7 @@
         <v>4</v>
       </c>
       <c r="AK16" s="37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AL16" s="38" t="s">
         <v>19</v>
@@ -5346,7 +5554,7 @@
       </c>
       <c r="AC17" s="36"/>
       <c r="AD17" s="47" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="AE17" s="47" t="str">
         <f t="shared" si="9"/>
@@ -5354,7 +5562,7 @@
       </c>
       <c r="AF17" s="36"/>
       <c r="AG17" s="47" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="AH17" s="47" t="str">
         <f t="shared" si="10"/>
@@ -5364,7 +5572,9 @@
       <c r="AJ17" s="37">
         <v>1</v>
       </c>
-      <c r="AK17" s="37"/>
+      <c r="AK17" s="37">
+        <v>10</v>
+      </c>
       <c r="AL17" s="38" t="s">
         <v>19</v>
       </c>
@@ -5386,110 +5596,114 @@
       </c>
     </row>
     <row r="18" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52">
-        <v>1</v>
-      </c>
-      <c r="E18" s="53">
-        <v>0</v>
-      </c>
-      <c r="F18" s="53">
-        <v>0</v>
-      </c>
-      <c r="G18" s="53">
-        <v>0</v>
-      </c>
-      <c r="H18" s="54">
-        <v>1</v>
-      </c>
-      <c r="I18" s="54">
-        <v>0</v>
-      </c>
-      <c r="J18" s="54">
-        <v>0</v>
-      </c>
-      <c r="K18" s="54">
-        <v>1</v>
-      </c>
-      <c r="L18" s="54"/>
-      <c r="M18" s="55">
+      <c r="C18" s="31"/>
+      <c r="D18" s="43">
+        <v>1</v>
+      </c>
+      <c r="E18" s="44">
+        <v>0</v>
+      </c>
+      <c r="F18" s="44">
+        <v>0</v>
+      </c>
+      <c r="G18" s="44">
+        <v>0</v>
+      </c>
+      <c r="H18" s="37">
+        <v>1</v>
+      </c>
+      <c r="I18" s="37">
+        <v>0</v>
+      </c>
+      <c r="J18" s="37">
+        <v>0</v>
+      </c>
+      <c r="K18" s="37">
+        <v>1</v>
+      </c>
+      <c r="L18" s="37"/>
+      <c r="M18" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N18" s="56">
+      <c r="N18" s="46">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O18" s="56">
+      <c r="O18" s="46">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P18" s="56">
+      <c r="P18" s="46">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q18" s="56">
+      <c r="Q18" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R18" s="56">
+      <c r="R18" s="46">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="S18" s="56">
+      <c r="S18" s="46">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T18" s="56">
+      <c r="T18" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U18" s="13"/>
-      <c r="V18" s="54">
+      <c r="U18" s="36"/>
+      <c r="V18" s="47">
         <f t="shared" si="1"/>
         <v>137</v>
       </c>
-      <c r="W18" s="56">
+      <c r="W18" s="48">
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="54" t="str">
+      <c r="X18" s="37"/>
+      <c r="Y18" s="47" t="str">
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
-      <c r="Z18" s="56" t="str">
+      <c r="Z18" s="48" t="str">
         <f t="shared" si="4"/>
         <v>76</v>
       </c>
-      <c r="AA18" s="54"/>
-      <c r="AB18" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE18" s="58" t="str">
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="49" t="s">
+        <v>497</v>
+      </c>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="47" t="s">
+        <v>496</v>
+      </c>
+      <c r="AE18" s="47" t="str">
         <f t="shared" si="9"/>
         <v>89</v>
       </c>
-      <c r="AF18" s="58"/>
-      <c r="AG18" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH18" s="58" t="str">
+      <c r="AF18" s="36"/>
+      <c r="AG18" s="47" t="s">
+        <v>499</v>
+      </c>
+      <c r="AH18" s="47" t="str">
         <f t="shared" si="10"/>
         <v>76</v>
       </c>
-      <c r="AI18" s="13"/>
-      <c r="AJ18" s="58"/>
-      <c r="AK18" s="58"/>
-      <c r="AL18" s="59" t="s">
-        <v>49</v>
+      <c r="AI18" s="36"/>
+      <c r="AJ18" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="AK18" s="37">
+        <v>2</v>
+      </c>
+      <c r="AL18" s="38" t="s">
+        <v>19</v>
       </c>
       <c r="AN18" s="39" t="str">
         <f>AD13</f>
@@ -5501,118 +5715,122 @@
       </c>
       <c r="AP18" s="41" t="str">
         <f t="shared" si="7"/>
-        <v>Set Page Base Address</v>
+        <v>Set Flash Page Base Address</v>
       </c>
       <c r="AQ18" s="42" t="str">
         <f t="shared" ref="AQ18" si="14">CONCATENATE(IF(VLOOKUP(AN18,$AD$6:$AL$135,9,FALSE)="NO", "// ", ""),"#define ",AN18, " 0x",AO18, " /* Command ", AP18, " */")</f>
-        <v>#define STPGADDR 0x84 /* Command Set Page Base Address */</v>
+        <v>#define STPGADDR 0x84 /* Command Set Flash Page Base Address */</v>
       </c>
     </row>
     <row r="19" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52">
-        <v>1</v>
-      </c>
-      <c r="E19" s="53">
-        <v>0</v>
-      </c>
-      <c r="F19" s="53">
-        <v>0</v>
-      </c>
-      <c r="G19" s="53">
-        <v>0</v>
-      </c>
-      <c r="H19" s="54">
-        <v>1</v>
-      </c>
-      <c r="I19" s="54">
-        <v>0</v>
-      </c>
-      <c r="J19" s="54">
-        <v>1</v>
-      </c>
-      <c r="K19" s="54">
-        <v>0</v>
-      </c>
-      <c r="L19" s="54"/>
-      <c r="M19" s="55">
+      <c r="C19" s="31"/>
+      <c r="D19" s="43">
+        <v>1</v>
+      </c>
+      <c r="E19" s="44">
+        <v>0</v>
+      </c>
+      <c r="F19" s="44">
+        <v>0</v>
+      </c>
+      <c r="G19" s="44">
+        <v>0</v>
+      </c>
+      <c r="H19" s="37">
+        <v>1</v>
+      </c>
+      <c r="I19" s="37">
+        <v>0</v>
+      </c>
+      <c r="J19" s="37">
+        <v>1</v>
+      </c>
+      <c r="K19" s="37">
+        <v>0</v>
+      </c>
+      <c r="L19" s="37"/>
+      <c r="M19" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N19" s="56">
+      <c r="N19" s="46">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O19" s="56">
+      <c r="O19" s="46">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P19" s="56">
+      <c r="P19" s="46">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q19" s="56">
+      <c r="Q19" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R19" s="56">
+      <c r="R19" s="46">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="S19" s="56">
+      <c r="S19" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T19" s="56">
+      <c r="T19" s="46">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U19" s="13"/>
-      <c r="V19" s="54">
+      <c r="U19" s="36"/>
+      <c r="V19" s="47">
         <f t="shared" si="1"/>
         <v>138</v>
       </c>
-      <c r="W19" s="56">
+      <c r="W19" s="48">
         <f t="shared" si="2"/>
         <v>117</v>
       </c>
-      <c r="X19" s="54"/>
-      <c r="Y19" s="54" t="str">
+      <c r="X19" s="37"/>
+      <c r="Y19" s="47" t="str">
         <f t="shared" si="3"/>
         <v>8A</v>
       </c>
-      <c r="Z19" s="56" t="str">
+      <c r="Z19" s="48" t="str">
         <f t="shared" si="4"/>
         <v>75</v>
       </c>
-      <c r="AA19" s="54"/>
-      <c r="AB19" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE19" s="58" t="str">
+      <c r="AA19" s="37"/>
+      <c r="AB19" s="49" t="s">
+        <v>498</v>
+      </c>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="47" t="s">
+        <v>500</v>
+      </c>
+      <c r="AE19" s="47" t="str">
         <f t="shared" si="9"/>
         <v>8A</v>
       </c>
-      <c r="AF19" s="58"/>
-      <c r="AG19" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH19" s="58" t="str">
+      <c r="AF19" s="36"/>
+      <c r="AG19" s="47" t="s">
+        <v>501</v>
+      </c>
+      <c r="AH19" s="47" t="str">
         <f t="shared" si="10"/>
         <v>75</v>
       </c>
-      <c r="AI19" s="13"/>
-      <c r="AJ19" s="58"/>
-      <c r="AK19" s="58"/>
-      <c r="AL19" s="59" t="s">
-        <v>49</v>
+      <c r="AI19" s="36"/>
+      <c r="AJ19" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK19" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL19" s="38" t="s">
+        <v>19</v>
       </c>
       <c r="AN19" s="39" t="str">
         <f>VLOOKUP(AN18,$AD$7:$AH$135,4,FALSE)</f>
@@ -5624,11 +5842,11 @@
       </c>
       <c r="AP19" s="41" t="str">
         <f>AP18</f>
-        <v>Set Page Base Address</v>
+        <v>Set Flash Page Base Address</v>
       </c>
       <c r="AQ19" s="42" t="str">
         <f>CONCATENATE(IF(VLOOKUP(AN18,$AD$6:$AL$135,9,FALSE)="NO", "// ", ""),"#define ",AN19, " 0x",AO19, " /* Acknowledge ", AP18, " command */")</f>
-        <v>#define AKPGADDR 0x7B /* Acknowledge Set Page Base Address command */</v>
+        <v>#define AKPGADDR 0x7B /* Acknowledge Set Flash Page Base Address command */</v>
       </c>
     </row>
     <row r="20" spans="2:43" x14ac:dyDescent="0.25">
@@ -5713,11 +5931,11 @@
       </c>
       <c r="AA20" s="54"/>
       <c r="AB20" s="57" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="AC20" s="13"/>
       <c r="AD20" s="58" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AE20" s="58" t="str">
         <f t="shared" si="9"/>
@@ -5725,7 +5943,7 @@
       </c>
       <c r="AF20" s="58"/>
       <c r="AG20" s="58" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="AH20" s="58" t="str">
         <f t="shared" si="10"/>
@@ -5735,7 +5953,7 @@
       <c r="AJ20" s="58"/>
       <c r="AK20" s="58"/>
       <c r="AL20" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN20" s="39" t="str">
         <f>AD14</f>
@@ -5836,11 +6054,11 @@
       </c>
       <c r="AA21" s="54"/>
       <c r="AB21" s="57" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="AC21" s="13"/>
       <c r="AD21" s="58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="AE21" s="58" t="str">
         <f t="shared" si="9"/>
@@ -5848,7 +6066,7 @@
       </c>
       <c r="AF21" s="58"/>
       <c r="AG21" s="58" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="AH21" s="58" t="str">
         <f t="shared" si="10"/>
@@ -5858,7 +6076,7 @@
       <c r="AJ21" s="58"/>
       <c r="AK21" s="58"/>
       <c r="AL21" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN21" s="39" t="str">
         <f>VLOOKUP(AN20,$AD$7:$AH$135,4,FALSE)</f>
@@ -5959,11 +6177,11 @@
       </c>
       <c r="AA22" s="54"/>
       <c r="AB22" s="57" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="AC22" s="13"/>
       <c r="AD22" s="58" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="AE22" s="58" t="str">
         <f t="shared" si="9"/>
@@ -5971,7 +6189,7 @@
       </c>
       <c r="AF22" s="58"/>
       <c r="AG22" s="58" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="AH22" s="58" t="str">
         <f t="shared" si="10"/>
@@ -5981,7 +6199,7 @@
       <c r="AJ22" s="58"/>
       <c r="AK22" s="58"/>
       <c r="AL22" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN22" s="39" t="str">
         <f>AD15</f>
@@ -6082,11 +6300,11 @@
       </c>
       <c r="AA23" s="54"/>
       <c r="AB23" s="57" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="AC23" s="13"/>
       <c r="AD23" s="58" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="AE23" s="58" t="str">
         <f t="shared" si="9"/>
@@ -6094,7 +6312,7 @@
       </c>
       <c r="AF23" s="58"/>
       <c r="AG23" s="58" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="AH23" s="58" t="str">
         <f t="shared" si="10"/>
@@ -6104,7 +6322,7 @@
       <c r="AJ23" s="58"/>
       <c r="AK23" s="58"/>
       <c r="AL23" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN23" s="39" t="str">
         <f>VLOOKUP(AN22,$AD$7:$AH$135,4,FALSE)</f>
@@ -6205,11 +6423,11 @@
       </c>
       <c r="AA24" s="64"/>
       <c r="AB24" s="57" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AC24" s="13"/>
       <c r="AD24" s="58" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="AE24" s="68" t="str">
         <f t="shared" si="9"/>
@@ -6217,7 +6435,7 @@
       </c>
       <c r="AF24" s="68"/>
       <c r="AG24" s="68" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="AH24" s="68" t="str">
         <f t="shared" si="10"/>
@@ -6227,7 +6445,7 @@
       <c r="AJ24" s="68"/>
       <c r="AK24" s="68"/>
       <c r="AL24" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN24" s="39" t="str">
         <f>AD16</f>
@@ -6248,7 +6466,7 @@
     </row>
     <row r="25" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B25" s="69" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C25" s="70"/>
       <c r="D25" s="55">
@@ -6328,11 +6546,11 @@
       </c>
       <c r="AA25" s="54"/>
       <c r="AB25" s="72" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="AC25" s="15"/>
       <c r="AD25" s="73" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="AE25" s="58" t="str">
         <f>Y25</f>
@@ -6340,7 +6558,7 @@
       </c>
       <c r="AF25" s="13"/>
       <c r="AG25" s="58" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="AH25" s="58" t="str">
         <f t="shared" si="10"/>
@@ -6354,7 +6572,7 @@
         <v>1</v>
       </c>
       <c r="AL25" s="74" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN25" s="39" t="str">
         <f>VLOOKUP(AN24,$AD$7:$AH$135,4,FALSE)</f>
@@ -6375,7 +6593,7 @@
     </row>
     <row r="26" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B26" s="69" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C26" s="70"/>
       <c r="D26" s="55">
@@ -6455,11 +6673,11 @@
       </c>
       <c r="AA26" s="54"/>
       <c r="AB26" s="57" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AC26" s="13"/>
       <c r="AD26" s="58" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="AE26" s="58" t="str">
         <f>Y26</f>
@@ -6467,7 +6685,7 @@
       </c>
       <c r="AF26" s="13"/>
       <c r="AG26" s="58" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="AH26" s="58" t="str">
         <f t="shared" si="10"/>
@@ -6481,7 +6699,7 @@
         <v>1</v>
       </c>
       <c r="AL26" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN26" s="39" t="str">
         <f>AD17</f>
@@ -6493,16 +6711,16 @@
       </c>
       <c r="AP26" s="41" t="str">
         <f t="shared" si="7"/>
-        <v>Read Device Signature</v>
+        <v>Read Device Signature And Fuses</v>
       </c>
       <c r="AQ26" s="42" t="str">
         <f t="shared" ref="AQ26" si="19">CONCATENATE(IF(VLOOKUP(AN26,$AD$6:$AL$135,9,FALSE)="NO", "// ", ""),"#define ",AN26, " 0x",AO26, " /* Command ", AP26, " */")</f>
-        <v>#define READDEVS 0x88 /* Command Read Device Signature */</v>
+        <v>#define READDEVS 0x88 /* Command Read Device Signature And Fuses */</v>
       </c>
     </row>
     <row r="27" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B27" s="75" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C27" s="76"/>
       <c r="D27" s="45">
@@ -6582,11 +6800,11 @@
       </c>
       <c r="AA27" s="37"/>
       <c r="AB27" s="49" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AC27" s="36"/>
       <c r="AD27" s="47" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="AE27" s="47" t="str">
         <f>Y27</f>
@@ -6594,7 +6812,7 @@
       </c>
       <c r="AF27" s="47"/>
       <c r="AG27" s="47" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AH27" s="47" t="str">
         <f>Z27</f>
@@ -6620,16 +6838,16 @@
       </c>
       <c r="AP27" s="41" t="str">
         <f>AP26</f>
-        <v>Read Device Signature</v>
+        <v>Read Device Signature And Fuses</v>
       </c>
       <c r="AQ27" s="42" t="str">
         <f>CONCATENATE(IF(VLOOKUP(AN26,$AD$6:$AL$135,9,FALSE)="NO", "// ", ""),"#define ",AN27, " 0x",AO27, " /* Acknowledge ", AP26, " command */")</f>
-        <v>#define ACKRDEVS 0x77 /* Acknowledge Read Device Signature command */</v>
+        <v>#define ACKRDEVS 0x77 /* Acknowledge Read Device Signature And Fuses command */</v>
       </c>
     </row>
     <row r="28" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B28" s="75" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C28" s="76"/>
       <c r="D28" s="45">
@@ -6709,11 +6927,11 @@
       </c>
       <c r="AA28" s="37"/>
       <c r="AB28" s="49" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AC28" s="36"/>
       <c r="AD28" s="47" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AE28" s="47" t="str">
         <f>Y28</f>
@@ -6721,7 +6939,7 @@
       </c>
       <c r="AF28" s="47"/>
       <c r="AG28" s="47" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH28" s="47" t="str">
         <f>Z28</f>
@@ -6739,7 +6957,7 @@
       </c>
       <c r="AN28" s="39" t="str">
         <f>AD18</f>
-        <v>BLRCMD02</v>
+        <v>WRITEEPR</v>
       </c>
       <c r="AO28" s="40" t="str">
         <f>AE18</f>
@@ -6747,16 +6965,16 @@
       </c>
       <c r="AP28" s="41" t="str">
         <f t="shared" si="7"/>
-        <v>Unassigned Bootloader Cmd 11</v>
+        <v>Write Byte To Eeprom</v>
       </c>
       <c r="AQ28" s="42" t="str">
         <f t="shared" ref="AQ28" si="21">CONCATENATE(IF(VLOOKUP(AN28,$AD$6:$AL$135,9,FALSE)="NO", "// ", ""),"#define ",AN28, " 0x",AO28, " /* Command ", AP28, " */")</f>
-        <v>// #define BLRCMD02 0x89 /* Command Unassigned Bootloader Cmd 11 */</v>
+        <v>#define WRITEEPR 0x89 /* Command Write Byte To Eeprom */</v>
       </c>
     </row>
     <row r="29" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B29" s="69" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C29" s="70"/>
       <c r="D29" s="55">
@@ -6836,11 +7054,11 @@
       </c>
       <c r="AA29" s="54"/>
       <c r="AB29" s="57" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AC29" s="13"/>
       <c r="AD29" s="58" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AE29" s="58" t="str">
         <f t="shared" ref="AE29:AE64" si="24">Y29</f>
@@ -6848,7 +7066,7 @@
       </c>
       <c r="AF29" s="13"/>
       <c r="AG29" s="58" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH29" s="58" t="str">
         <f t="shared" ref="AH29:AH67" si="25">Z29</f>
@@ -6862,11 +7080,11 @@
         <v>1</v>
       </c>
       <c r="AL29" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN29" s="39" t="str">
         <f>VLOOKUP(AN28,$AD$7:$AH$135,4,FALSE)</f>
-        <v>ACKBLC02</v>
+        <v>ACKWTEEP</v>
       </c>
       <c r="AO29" s="40" t="str">
         <f>VLOOKUP(AN28,$AD$7:$AH$135,5,FALSE)</f>
@@ -6874,16 +7092,16 @@
       </c>
       <c r="AP29" s="41" t="str">
         <f>AP28</f>
-        <v>Unassigned Bootloader Cmd 11</v>
+        <v>Write Byte To Eeprom</v>
       </c>
       <c r="AQ29" s="42" t="str">
         <f>CONCATENATE(IF(VLOOKUP(AN28,$AD$6:$AL$135,9,FALSE)="NO", "// ", ""),"#define ",AN29, " 0x",AO29, " /* Acknowledge ", AP28, " command */")</f>
-        <v>// #define ACKBLC02 0x76 /* Acknowledge Unassigned Bootloader Cmd 11 command */</v>
+        <v>#define ACKWTEEP 0x76 /* Acknowledge Write Byte To Eeprom command */</v>
       </c>
     </row>
     <row r="30" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B30" s="69" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C30" s="70"/>
       <c r="D30" s="55">
@@ -6963,11 +7181,11 @@
       </c>
       <c r="AA30" s="54"/>
       <c r="AB30" s="57" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AC30" s="13"/>
       <c r="AD30" s="58" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AE30" s="58" t="str">
         <f t="shared" si="24"/>
@@ -6975,7 +7193,7 @@
       </c>
       <c r="AF30" s="13"/>
       <c r="AG30" s="58" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH30" s="58" t="str">
         <f t="shared" si="25"/>
@@ -6989,11 +7207,11 @@
         <v>1</v>
       </c>
       <c r="AL30" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN30" s="39" t="str">
         <f>AD19</f>
-        <v>BLRCMD03</v>
+        <v>READEEPR</v>
       </c>
       <c r="AO30" s="40" t="str">
         <f>AE19</f>
@@ -7001,16 +7219,16 @@
       </c>
       <c r="AP30" s="41" t="str">
         <f t="shared" si="7"/>
-        <v>Unassigned Bootloader Cmd 12</v>
+        <v>Read Byte From Eeprom</v>
       </c>
       <c r="AQ30" s="42" t="str">
         <f t="shared" ref="AQ30" si="26">CONCATENATE(IF(VLOOKUP(AN30,$AD$6:$AL$135,9,FALSE)="NO", "// ", ""),"#define ",AN30, " 0x",AO30, " /* Command ", AP30, " */")</f>
-        <v>// #define BLRCMD03 0x8A /* Command Unassigned Bootloader Cmd 12 */</v>
+        <v>#define READEEPR 0x8A /* Command Read Byte From Eeprom */</v>
       </c>
     </row>
     <row r="31" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B31" s="69" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C31" s="70"/>
       <c r="D31" s="55">
@@ -7090,11 +7308,11 @@
       </c>
       <c r="AA31" s="54"/>
       <c r="AB31" s="57" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AC31" s="13"/>
       <c r="AD31" s="58" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AE31" s="58" t="str">
         <f t="shared" si="24"/>
@@ -7102,7 +7320,7 @@
       </c>
       <c r="AF31" s="13"/>
       <c r="AG31" s="58" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="AH31" s="58" t="str">
         <f t="shared" si="25"/>
@@ -7116,11 +7334,11 @@
         <v>1</v>
       </c>
       <c r="AL31" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN31" s="39" t="str">
         <f>VLOOKUP(AN30,$AD$7:$AH$135,4,FALSE)</f>
-        <v>ACKBLC03</v>
+        <v>ACKRDEEP</v>
       </c>
       <c r="AO31" s="40" t="str">
         <f>VLOOKUP(AN30,$AD$7:$AH$135,5,FALSE)</f>
@@ -7128,16 +7346,16 @@
       </c>
       <c r="AP31" s="41" t="str">
         <f>AP30</f>
-        <v>Unassigned Bootloader Cmd 12</v>
+        <v>Read Byte From Eeprom</v>
       </c>
       <c r="AQ31" s="42" t="str">
         <f>CONCATENATE(IF(VLOOKUP(AN30,$AD$6:$AL$135,9,FALSE)="NO", "// ", ""),"#define ",AN31, " 0x",AO31, " /* Acknowledge ", AP30, " command */")</f>
-        <v>// #define ACKBLC03 0x75 /* Acknowledge Unassigned Bootloader Cmd 12 command */</v>
+        <v>#define ACKRDEEP 0x75 /* Acknowledge Read Byte From Eeprom command */</v>
       </c>
     </row>
     <row r="32" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B32" s="69" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C32" s="70"/>
       <c r="D32" s="55">
@@ -7217,11 +7435,11 @@
       </c>
       <c r="AA32" s="54"/>
       <c r="AB32" s="57" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="AC32" s="13"/>
       <c r="AD32" s="58" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="AE32" s="58" t="str">
         <f t="shared" si="24"/>
@@ -7229,7 +7447,7 @@
       </c>
       <c r="AF32" s="13"/>
       <c r="AG32" s="58" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="AH32" s="58" t="str">
         <f t="shared" si="25"/>
@@ -7243,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="AL32" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN32" s="39" t="str">
         <f>AD20</f>
@@ -7264,7 +7482,7 @@
     </row>
     <row r="33" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B33" s="69" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C33" s="70"/>
       <c r="D33" s="55">
@@ -7344,11 +7562,11 @@
       </c>
       <c r="AA33" s="54"/>
       <c r="AB33" s="57" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="AC33" s="13"/>
       <c r="AD33" s="58" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="AE33" s="58" t="str">
         <f t="shared" si="24"/>
@@ -7356,7 +7574,7 @@
       </c>
       <c r="AF33" s="13"/>
       <c r="AG33" s="58" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AH33" s="58" t="str">
         <f t="shared" si="25"/>
@@ -7370,7 +7588,7 @@
         <v>1</v>
       </c>
       <c r="AL33" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN33" s="39" t="str">
         <f>VLOOKUP(AN32,$AD$7:$AH$135,4,FALSE)</f>
@@ -7391,7 +7609,7 @@
     </row>
     <row r="34" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B34" s="69" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C34" s="70"/>
       <c r="D34" s="55">
@@ -7471,11 +7689,11 @@
       </c>
       <c r="AA34" s="54"/>
       <c r="AB34" s="57" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AC34" s="13"/>
       <c r="AD34" s="58" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="AE34" s="58" t="str">
         <f t="shared" si="24"/>
@@ -7483,7 +7701,7 @@
       </c>
       <c r="AF34" s="13"/>
       <c r="AG34" s="58" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="AH34" s="58" t="str">
         <f t="shared" si="25"/>
@@ -7497,7 +7715,7 @@
         <v>1</v>
       </c>
       <c r="AL34" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN34" s="39" t="str">
         <f>AD21</f>
@@ -7518,7 +7736,7 @@
     </row>
     <row r="35" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B35" s="69" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C35" s="70"/>
       <c r="D35" s="55">
@@ -7598,11 +7816,11 @@
       </c>
       <c r="AA35" s="54"/>
       <c r="AB35" s="57" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AC35" s="13"/>
       <c r="AD35" s="58" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="AE35" s="58" t="str">
         <f t="shared" si="24"/>
@@ -7610,7 +7828,7 @@
       </c>
       <c r="AF35" s="13"/>
       <c r="AG35" s="58" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AH35" s="58" t="str">
         <f t="shared" si="25"/>
@@ -7624,7 +7842,7 @@
         <v>1</v>
       </c>
       <c r="AL35" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN35" s="39" t="str">
         <f>VLOOKUP(AN34,$AD$7:$AH$135,4,FALSE)</f>
@@ -7645,7 +7863,7 @@
     </row>
     <row r="36" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B36" s="69" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C36" s="70"/>
       <c r="D36" s="55">
@@ -7725,11 +7943,11 @@
       </c>
       <c r="AA36" s="54"/>
       <c r="AB36" s="57" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="AC36" s="13"/>
       <c r="AD36" s="58" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="AE36" s="58" t="str">
         <f t="shared" si="24"/>
@@ -7737,7 +7955,7 @@
       </c>
       <c r="AF36" s="13"/>
       <c r="AG36" s="58" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="AH36" s="58" t="str">
         <f t="shared" si="25"/>
@@ -7751,7 +7969,7 @@
         <v>1</v>
       </c>
       <c r="AL36" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN36" s="39" t="str">
         <f>AD22</f>
@@ -7772,7 +7990,7 @@
     </row>
     <row r="37" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B37" s="69" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C37" s="70"/>
       <c r="D37" s="55">
@@ -7852,11 +8070,11 @@
       </c>
       <c r="AA37" s="54"/>
       <c r="AB37" s="57" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AC37" s="13"/>
       <c r="AD37" s="58" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="AE37" s="58" t="str">
         <f t="shared" si="24"/>
@@ -7864,7 +8082,7 @@
       </c>
       <c r="AF37" s="13"/>
       <c r="AG37" s="58" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AH37" s="58" t="str">
         <f t="shared" si="25"/>
@@ -7878,7 +8096,7 @@
         <v>1</v>
       </c>
       <c r="AL37" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN37" s="39" t="str">
         <f>VLOOKUP(AN36,$AD$7:$AH$135,4,FALSE)</f>
@@ -7899,7 +8117,7 @@
     </row>
     <row r="38" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B38" s="69" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C38" s="70"/>
       <c r="D38" s="55">
@@ -7979,11 +8197,11 @@
       </c>
       <c r="AA38" s="54"/>
       <c r="AB38" s="57" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AC38" s="13"/>
       <c r="AD38" s="58" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="AE38" s="58" t="str">
         <f t="shared" si="24"/>
@@ -7991,7 +8209,7 @@
       </c>
       <c r="AF38" s="13"/>
       <c r="AG38" s="58" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AH38" s="58" t="str">
         <f t="shared" si="25"/>
@@ -8005,7 +8223,7 @@
         <v>1</v>
       </c>
       <c r="AL38" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN38" s="39" t="str">
         <f>AD23</f>
@@ -8026,7 +8244,7 @@
     </row>
     <row r="39" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B39" s="69" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C39" s="70"/>
       <c r="D39" s="55">
@@ -8106,11 +8324,11 @@
       </c>
       <c r="AA39" s="54"/>
       <c r="AB39" s="57" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="AC39" s="13"/>
       <c r="AD39" s="58" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="AE39" s="58" t="str">
         <f t="shared" si="24"/>
@@ -8118,7 +8336,7 @@
       </c>
       <c r="AF39" s="13"/>
       <c r="AG39" s="58" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AH39" s="58" t="str">
         <f t="shared" si="25"/>
@@ -8132,7 +8350,7 @@
         <v>1</v>
       </c>
       <c r="AL39" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN39" s="39" t="str">
         <f>VLOOKUP(AN38,$AD$7:$AH$135,4,FALSE)</f>
@@ -8153,7 +8371,7 @@
     </row>
     <row r="40" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B40" s="69" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C40" s="70"/>
       <c r="D40" s="55">
@@ -8233,11 +8451,11 @@
       </c>
       <c r="AA40" s="54"/>
       <c r="AB40" s="57" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="AC40" s="13"/>
       <c r="AD40" s="58" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="AE40" s="58" t="str">
         <f t="shared" si="24"/>
@@ -8245,7 +8463,7 @@
       </c>
       <c r="AF40" s="13"/>
       <c r="AG40" s="58" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="AH40" s="58" t="str">
         <f t="shared" si="25"/>
@@ -8259,7 +8477,7 @@
         <v>1</v>
       </c>
       <c r="AL40" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN40" s="39" t="str">
         <f>AD24</f>
@@ -8280,7 +8498,7 @@
     </row>
     <row r="41" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B41" s="69" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C41" s="70"/>
       <c r="D41" s="55">
@@ -8360,11 +8578,11 @@
       </c>
       <c r="AA41" s="54"/>
       <c r="AB41" s="57" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="AC41" s="13"/>
       <c r="AD41" s="58" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="AE41" s="58" t="str">
         <f t="shared" si="24"/>
@@ -8372,7 +8590,7 @@
       </c>
       <c r="AF41" s="13"/>
       <c r="AG41" s="58" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="AH41" s="58" t="str">
         <f t="shared" si="25"/>
@@ -8386,7 +8604,7 @@
         <v>1</v>
       </c>
       <c r="AL41" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN41" s="39" t="str">
         <f>VLOOKUP(AN40,$AD$7:$AH$135,4,FALSE)</f>
@@ -8407,7 +8625,7 @@
     </row>
     <row r="42" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B42" s="69" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C42" s="70"/>
       <c r="D42" s="55">
@@ -8487,11 +8705,11 @@
       </c>
       <c r="AA42" s="54"/>
       <c r="AB42" s="57" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="AC42" s="13"/>
       <c r="AD42" s="58" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="AE42" s="58" t="str">
         <f t="shared" si="24"/>
@@ -8499,7 +8717,7 @@
       </c>
       <c r="AF42" s="13"/>
       <c r="AG42" s="58" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="AH42" s="58" t="str">
         <f t="shared" si="25"/>
@@ -8513,7 +8731,7 @@
         <v>1</v>
       </c>
       <c r="AL42" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN42" s="39" t="str">
         <f>AD25</f>
@@ -8534,7 +8752,7 @@
     </row>
     <row r="43" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B43" s="69" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C43" s="70"/>
       <c r="D43" s="55">
@@ -8614,11 +8832,11 @@
       </c>
       <c r="AA43" s="54"/>
       <c r="AB43" s="57" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AC43" s="13"/>
       <c r="AD43" s="58" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AE43" s="58" t="str">
         <f t="shared" si="24"/>
@@ -8626,7 +8844,7 @@
       </c>
       <c r="AF43" s="13"/>
       <c r="AG43" s="58" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="AH43" s="58" t="str">
         <f t="shared" si="25"/>
@@ -8640,7 +8858,7 @@
         <v>1</v>
       </c>
       <c r="AL43" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN43" s="39" t="str">
         <f>VLOOKUP(AN42,$AD$7:$AH$135,4,FALSE)</f>
@@ -8661,7 +8879,7 @@
     </row>
     <row r="44" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B44" s="69" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C44" s="70"/>
       <c r="D44" s="55">
@@ -8741,11 +8959,11 @@
       </c>
       <c r="AA44" s="54"/>
       <c r="AB44" s="57" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AC44" s="13"/>
       <c r="AD44" s="58" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="AE44" s="58" t="str">
         <f t="shared" si="24"/>
@@ -8753,7 +8971,7 @@
       </c>
       <c r="AF44" s="13"/>
       <c r="AG44" s="58" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="AH44" s="58" t="str">
         <f t="shared" si="25"/>
@@ -8767,7 +8985,7 @@
         <v>1</v>
       </c>
       <c r="AL44" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN44" s="39" t="str">
         <f>AD26</f>
@@ -8788,7 +9006,7 @@
     </row>
     <row r="45" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B45" s="69" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C45" s="70"/>
       <c r="D45" s="55">
@@ -8868,11 +9086,11 @@
       </c>
       <c r="AA45" s="54"/>
       <c r="AB45" s="57" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="AC45" s="13"/>
       <c r="AD45" s="58" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AE45" s="58" t="str">
         <f t="shared" si="24"/>
@@ -8880,7 +9098,7 @@
       </c>
       <c r="AF45" s="13"/>
       <c r="AG45" s="58" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="AH45" s="58" t="str">
         <f t="shared" si="25"/>
@@ -8894,7 +9112,7 @@
         <v>1</v>
       </c>
       <c r="AL45" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN45" s="39" t="str">
         <f>VLOOKUP(AN44,$AD$7:$AH$135,4,FALSE)</f>
@@ -8915,7 +9133,7 @@
     </row>
     <row r="46" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B46" s="69" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C46" s="70"/>
       <c r="D46" s="55">
@@ -8995,11 +9213,11 @@
       </c>
       <c r="AA46" s="54"/>
       <c r="AB46" s="57" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="AC46" s="13"/>
       <c r="AD46" s="58" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="AE46" s="58" t="str">
         <f t="shared" si="24"/>
@@ -9007,7 +9225,7 @@
       </c>
       <c r="AF46" s="13"/>
       <c r="AG46" s="58" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="AH46" s="58" t="str">
         <f t="shared" si="25"/>
@@ -9021,7 +9239,7 @@
         <v>1</v>
       </c>
       <c r="AL46" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN46" s="39" t="str">
         <f>AD27</f>
@@ -9042,7 +9260,7 @@
     </row>
     <row r="47" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B47" s="69" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C47" s="70"/>
       <c r="D47" s="55">
@@ -9122,11 +9340,11 @@
       </c>
       <c r="AA47" s="54"/>
       <c r="AB47" s="57" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="AC47" s="13"/>
       <c r="AD47" s="58" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="AE47" s="58" t="str">
         <f t="shared" si="24"/>
@@ -9134,7 +9352,7 @@
       </c>
       <c r="AF47" s="13"/>
       <c r="AG47" s="58" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="AH47" s="58" t="str">
         <f t="shared" si="25"/>
@@ -9148,7 +9366,7 @@
         <v>1</v>
       </c>
       <c r="AL47" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN47" s="39" t="str">
         <f>VLOOKUP(AN46,$AD$7:$AH$135,4,FALSE)</f>
@@ -9169,7 +9387,7 @@
     </row>
     <row r="48" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B48" s="69" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C48" s="70"/>
       <c r="D48" s="55">
@@ -9249,11 +9467,11 @@
       </c>
       <c r="AA48" s="54"/>
       <c r="AB48" s="57" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="AC48" s="13"/>
       <c r="AD48" s="58" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="AE48" s="58" t="str">
         <f t="shared" si="24"/>
@@ -9261,7 +9479,7 @@
       </c>
       <c r="AF48" s="13"/>
       <c r="AG48" s="58" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="AH48" s="58" t="str">
         <f t="shared" si="25"/>
@@ -9275,7 +9493,7 @@
         <v>1</v>
       </c>
       <c r="AL48" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN48" s="39" t="str">
         <f>AD28</f>
@@ -9296,7 +9514,7 @@
     </row>
     <row r="49" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B49" s="69" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C49" s="70"/>
       <c r="D49" s="55">
@@ -9376,11 +9594,11 @@
       </c>
       <c r="AA49" s="54"/>
       <c r="AB49" s="57" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="AC49" s="13"/>
       <c r="AD49" s="58" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="AE49" s="58" t="str">
         <f t="shared" si="24"/>
@@ -9388,7 +9606,7 @@
       </c>
       <c r="AF49" s="13"/>
       <c r="AG49" s="58" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="AH49" s="58" t="str">
         <f t="shared" si="25"/>
@@ -9402,7 +9620,7 @@
         <v>1</v>
       </c>
       <c r="AL49" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN49" s="39" t="str">
         <f>VLOOKUP(AN48,$AD$7:$AH$135,4,FALSE)</f>
@@ -9423,7 +9641,7 @@
     </row>
     <row r="50" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B50" s="69" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C50" s="70"/>
       <c r="D50" s="55">
@@ -9503,11 +9721,11 @@
       </c>
       <c r="AA50" s="54"/>
       <c r="AB50" s="57" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="AC50" s="13"/>
       <c r="AD50" s="58" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="AE50" s="58" t="str">
         <f t="shared" si="24"/>
@@ -9515,7 +9733,7 @@
       </c>
       <c r="AF50" s="13"/>
       <c r="AG50" s="58" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="AH50" s="58" t="str">
         <f t="shared" si="25"/>
@@ -9529,7 +9747,7 @@
         <v>1</v>
       </c>
       <c r="AL50" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN50" s="39" t="str">
         <f>AD29</f>
@@ -9550,7 +9768,7 @@
     </row>
     <row r="51" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B51" s="69" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C51" s="70"/>
       <c r="D51" s="55">
@@ -9630,11 +9848,11 @@
       </c>
       <c r="AA51" s="54"/>
       <c r="AB51" s="57" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="AC51" s="13"/>
       <c r="AD51" s="58" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="AE51" s="58" t="str">
         <f t="shared" si="24"/>
@@ -9642,7 +9860,7 @@
       </c>
       <c r="AF51" s="13"/>
       <c r="AG51" s="58" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="AH51" s="58" t="str">
         <f t="shared" si="25"/>
@@ -9656,7 +9874,7 @@
         <v>1</v>
       </c>
       <c r="AL51" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN51" s="39" t="str">
         <f>VLOOKUP(AN50,$AD$7:$AH$135,4,FALSE)</f>
@@ -9677,7 +9895,7 @@
     </row>
     <row r="52" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B52" s="69" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C52" s="70"/>
       <c r="D52" s="55">
@@ -9757,11 +9975,11 @@
       </c>
       <c r="AA52" s="54"/>
       <c r="AB52" s="57" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AC52" s="13"/>
       <c r="AD52" s="58" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AE52" s="58" t="str">
         <f t="shared" si="24"/>
@@ -9769,7 +9987,7 @@
       </c>
       <c r="AF52" s="13"/>
       <c r="AG52" s="58" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="AH52" s="58" t="str">
         <f t="shared" si="25"/>
@@ -9783,7 +10001,7 @@
         <v>1</v>
       </c>
       <c r="AL52" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN52" s="39" t="str">
         <f>AD30</f>
@@ -9804,7 +10022,7 @@
     </row>
     <row r="53" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B53" s="69" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C53" s="70"/>
       <c r="D53" s="55">
@@ -9884,11 +10102,11 @@
       </c>
       <c r="AA53" s="54"/>
       <c r="AB53" s="57" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AC53" s="13"/>
       <c r="AD53" s="58" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="AE53" s="58" t="str">
         <f t="shared" si="24"/>
@@ -9896,7 +10114,7 @@
       </c>
       <c r="AF53" s="13"/>
       <c r="AG53" s="58" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="AH53" s="58" t="str">
         <f t="shared" si="25"/>
@@ -9910,7 +10128,7 @@
         <v>1</v>
       </c>
       <c r="AL53" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN53" s="39" t="str">
         <f>VLOOKUP(AN52,$AD$7:$AH$135,4,FALSE)</f>
@@ -9931,7 +10149,7 @@
     </row>
     <row r="54" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B54" s="69" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C54" s="70"/>
       <c r="D54" s="55">
@@ -10011,11 +10229,11 @@
       </c>
       <c r="AA54" s="54"/>
       <c r="AB54" s="57" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="AC54" s="13"/>
       <c r="AD54" s="58" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="AE54" s="58" t="str">
         <f t="shared" si="24"/>
@@ -10023,7 +10241,7 @@
       </c>
       <c r="AF54" s="13"/>
       <c r="AG54" s="58" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="AH54" s="58" t="str">
         <f t="shared" si="25"/>
@@ -10037,7 +10255,7 @@
         <v>1</v>
       </c>
       <c r="AL54" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN54" s="39" t="str">
         <f>AD31</f>
@@ -10058,7 +10276,7 @@
     </row>
     <row r="55" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B55" s="69" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C55" s="70"/>
       <c r="D55" s="55">
@@ -10138,11 +10356,11 @@
       </c>
       <c r="AA55" s="54"/>
       <c r="AB55" s="57" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="AC55" s="13"/>
       <c r="AD55" s="58" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="AE55" s="58" t="str">
         <f t="shared" si="24"/>
@@ -10150,7 +10368,7 @@
       </c>
       <c r="AF55" s="13"/>
       <c r="AG55" s="58" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="AH55" s="58" t="str">
         <f t="shared" si="25"/>
@@ -10164,7 +10382,7 @@
         <v>1</v>
       </c>
       <c r="AL55" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN55" s="39" t="str">
         <f>VLOOKUP(AN54,$AD$7:$AH$135,4,FALSE)</f>
@@ -10185,7 +10403,7 @@
     </row>
     <row r="56" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B56" s="69" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C56" s="70"/>
       <c r="D56" s="55">
@@ -10265,11 +10483,11 @@
       </c>
       <c r="AA56" s="54"/>
       <c r="AB56" s="57" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="AC56" s="13"/>
       <c r="AD56" s="58" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="AE56" s="58" t="str">
         <f t="shared" si="24"/>
@@ -10277,7 +10495,7 @@
       </c>
       <c r="AF56" s="13"/>
       <c r="AG56" s="58" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AH56" s="58" t="str">
         <f t="shared" si="25"/>
@@ -10291,7 +10509,7 @@
         <v>1</v>
       </c>
       <c r="AL56" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN56" s="39" t="str">
         <f>AD32</f>
@@ -10312,7 +10530,7 @@
     </row>
     <row r="57" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B57" s="69" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C57" s="70"/>
       <c r="D57" s="55">
@@ -10392,11 +10610,11 @@
       </c>
       <c r="AA57" s="54"/>
       <c r="AB57" s="57" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="AC57" s="13"/>
       <c r="AD57" s="58" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="AE57" s="58" t="str">
         <f t="shared" si="24"/>
@@ -10404,7 +10622,7 @@
       </c>
       <c r="AF57" s="13"/>
       <c r="AG57" s="58" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="AH57" s="58" t="str">
         <f t="shared" si="25"/>
@@ -10418,7 +10636,7 @@
         <v>1</v>
       </c>
       <c r="AL57" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN57" s="39" t="str">
         <f>VLOOKUP(AN56,$AD$7:$AH$135,4,FALSE)</f>
@@ -10439,7 +10657,7 @@
     </row>
     <row r="58" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B58" s="69" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C58" s="70"/>
       <c r="D58" s="55">
@@ -10519,11 +10737,11 @@
       </c>
       <c r="AA58" s="54"/>
       <c r="AB58" s="57" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="AC58" s="13"/>
       <c r="AD58" s="58" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="AE58" s="58" t="str">
         <f t="shared" si="24"/>
@@ -10531,7 +10749,7 @@
       </c>
       <c r="AF58" s="13"/>
       <c r="AG58" s="58" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="AH58" s="58" t="str">
         <f t="shared" si="25"/>
@@ -10545,7 +10763,7 @@
         <v>1</v>
       </c>
       <c r="AL58" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN58" s="39" t="str">
         <f>AD33</f>
@@ -10566,7 +10784,7 @@
     </row>
     <row r="59" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B59" s="69" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C59" s="70"/>
       <c r="D59" s="55">
@@ -10646,11 +10864,11 @@
       </c>
       <c r="AA59" s="54"/>
       <c r="AB59" s="57" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="AC59" s="13"/>
       <c r="AD59" s="58" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="AE59" s="58" t="str">
         <f t="shared" si="24"/>
@@ -10658,7 +10876,7 @@
       </c>
       <c r="AF59" s="13"/>
       <c r="AG59" s="58" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="AH59" s="58" t="str">
         <f t="shared" si="25"/>
@@ -10672,7 +10890,7 @@
         <v>1</v>
       </c>
       <c r="AL59" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN59" s="39" t="str">
         <f>VLOOKUP(AN58,$AD$7:$AH$135,4,FALSE)</f>
@@ -10693,7 +10911,7 @@
     </row>
     <row r="60" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B60" s="69" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C60" s="70"/>
       <c r="D60" s="55">
@@ -10773,11 +10991,11 @@
       </c>
       <c r="AA60" s="54"/>
       <c r="AB60" s="57" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="AC60" s="13"/>
       <c r="AD60" s="58" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="AE60" s="58" t="str">
         <f t="shared" si="24"/>
@@ -10785,7 +11003,7 @@
       </c>
       <c r="AF60" s="13"/>
       <c r="AG60" s="58" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="AH60" s="58" t="str">
         <f t="shared" si="25"/>
@@ -10799,7 +11017,7 @@
         <v>1</v>
       </c>
       <c r="AL60" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN60" s="39" t="str">
         <f>AD34</f>
@@ -10820,7 +11038,7 @@
     </row>
     <row r="61" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B61" s="69" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C61" s="70"/>
       <c r="D61" s="55">
@@ -10900,11 +11118,11 @@
       </c>
       <c r="AA61" s="54"/>
       <c r="AB61" s="57" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="AC61" s="13"/>
       <c r="AD61" s="58" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="AE61" s="58" t="str">
         <f t="shared" si="24"/>
@@ -10912,7 +11130,7 @@
       </c>
       <c r="AF61" s="13"/>
       <c r="AG61" s="58" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="AH61" s="58" t="str">
         <f t="shared" si="25"/>
@@ -10926,7 +11144,7 @@
         <v>1</v>
       </c>
       <c r="AL61" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN61" s="39" t="str">
         <f>VLOOKUP(AN60,$AD$7:$AH$135,4,FALSE)</f>
@@ -10947,7 +11165,7 @@
     </row>
     <row r="62" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B62" s="69" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C62" s="70"/>
       <c r="D62" s="55">
@@ -11027,11 +11245,11 @@
       </c>
       <c r="AA62" s="54"/>
       <c r="AB62" s="57" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AC62" s="13"/>
       <c r="AD62" s="58" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AE62" s="58" t="str">
         <f t="shared" si="24"/>
@@ -11039,7 +11257,7 @@
       </c>
       <c r="AF62" s="13"/>
       <c r="AG62" s="58" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AH62" s="58" t="str">
         <f t="shared" si="25"/>
@@ -11053,7 +11271,7 @@
         <v>1</v>
       </c>
       <c r="AL62" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN62" s="39" t="str">
         <f>AD35</f>
@@ -11074,7 +11292,7 @@
     </row>
     <row r="63" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B63" s="69" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C63" s="70"/>
       <c r="D63" s="55">
@@ -11154,11 +11372,11 @@
       </c>
       <c r="AA63" s="54"/>
       <c r="AB63" s="57" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="AC63" s="13"/>
       <c r="AD63" s="58" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AE63" s="58" t="str">
         <f t="shared" si="24"/>
@@ -11166,7 +11384,7 @@
       </c>
       <c r="AF63" s="13"/>
       <c r="AG63" s="58" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="AH63" s="58" t="str">
         <f t="shared" si="25"/>
@@ -11180,7 +11398,7 @@
         <v>1</v>
       </c>
       <c r="AL63" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN63" s="39" t="str">
         <f>VLOOKUP(AN62,$AD$7:$AH$135,4,FALSE)</f>
@@ -11201,7 +11419,7 @@
     </row>
     <row r="64" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B64" s="69" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C64" s="70"/>
       <c r="D64" s="55">
@@ -11281,11 +11499,11 @@
       </c>
       <c r="AA64" s="54"/>
       <c r="AB64" s="57" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="AC64" s="13"/>
       <c r="AD64" s="58" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="AE64" s="58" t="str">
         <f t="shared" si="24"/>
@@ -11293,7 +11511,7 @@
       </c>
       <c r="AF64" s="13"/>
       <c r="AG64" s="58" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AH64" s="58" t="str">
         <f t="shared" si="25"/>
@@ -11307,7 +11525,7 @@
         <v>1</v>
       </c>
       <c r="AL64" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN64" s="39" t="str">
         <f>AD36</f>
@@ -11328,7 +11546,7 @@
     </row>
     <row r="65" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B65" s="69" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C65" s="70"/>
       <c r="D65" s="55">
@@ -11408,11 +11626,11 @@
       </c>
       <c r="AA65" s="54"/>
       <c r="AB65" s="57" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="AC65" s="13"/>
       <c r="AD65" s="58" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="AE65" s="58" t="str">
         <f>Y65</f>
@@ -11420,7 +11638,7 @@
       </c>
       <c r="AF65" s="13"/>
       <c r="AG65" s="58" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="AH65" s="58" t="str">
         <f t="shared" si="25"/>
@@ -11428,13 +11646,13 @@
       </c>
       <c r="AI65" s="13"/>
       <c r="AJ65" s="58" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AK65" s="58" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AL65" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN65" s="39" t="str">
         <f>VLOOKUP(AN64,$AD$7:$AH$135,4,FALSE)</f>
@@ -11455,7 +11673,7 @@
     </row>
     <row r="66" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B66" s="69" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C66" s="70"/>
       <c r="D66" s="55">
@@ -11535,11 +11753,11 @@
       </c>
       <c r="AA66" s="54"/>
       <c r="AB66" s="57" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="AC66" s="13"/>
       <c r="AD66" s="58" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="AE66" s="58" t="str">
         <f>Y66</f>
@@ -11547,7 +11765,7 @@
       </c>
       <c r="AF66" s="58"/>
       <c r="AG66" s="58" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="AH66" s="58" t="str">
         <f t="shared" si="25"/>
@@ -11555,13 +11773,13 @@
       </c>
       <c r="AI66" s="13"/>
       <c r="AJ66" s="58" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AK66" s="58" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AL66" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN66" s="39" t="str">
         <f>AD37</f>
@@ -11582,7 +11800,7 @@
     </row>
     <row r="67" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B67" s="69" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C67" s="70"/>
       <c r="D67" s="55">
@@ -11662,11 +11880,11 @@
       </c>
       <c r="AA67" s="54"/>
       <c r="AB67" s="57" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="AC67" s="13"/>
       <c r="AD67" s="58" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="AE67" s="58" t="str">
         <f t="shared" ref="AE67:AE130" si="47">Y67</f>
@@ -11674,7 +11892,7 @@
       </c>
       <c r="AF67" s="58"/>
       <c r="AG67" s="58" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="AH67" s="58" t="str">
         <f t="shared" si="25"/>
@@ -11682,13 +11900,13 @@
       </c>
       <c r="AI67" s="13"/>
       <c r="AJ67" s="58" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AK67" s="58" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AL67" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN67" s="39" t="str">
         <f>VLOOKUP(AN66,$AD$7:$AH$135,4,FALSE)</f>
@@ -11709,7 +11927,7 @@
     </row>
     <row r="68" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B68" s="75" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C68" s="76"/>
       <c r="D68" s="45">
@@ -11789,11 +12007,11 @@
       </c>
       <c r="AA68" s="37"/>
       <c r="AB68" s="49" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="AC68" s="36"/>
       <c r="AD68" s="47" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="AE68" s="47" t="str">
         <f t="shared" si="47"/>
@@ -11801,7 +12019,7 @@
       </c>
       <c r="AF68" s="47"/>
       <c r="AG68" s="47" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="AH68" s="47" t="str">
         <f>Z68</f>
@@ -11809,10 +12027,10 @@
       </c>
       <c r="AI68" s="36"/>
       <c r="AJ68" s="37" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AK68" s="37" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AL68" s="38" t="s">
         <v>19</v>
@@ -11836,7 +12054,7 @@
     </row>
     <row r="69" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B69" s="69" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C69" s="70"/>
       <c r="D69" s="55">
@@ -11916,11 +12134,11 @@
       </c>
       <c r="AA69" s="54"/>
       <c r="AB69" s="57" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AC69" s="13"/>
       <c r="AD69" s="58" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="AE69" s="58" t="str">
         <f t="shared" si="47"/>
@@ -11928,7 +12146,7 @@
       </c>
       <c r="AF69" s="58"/>
       <c r="AG69" s="58" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="AH69" s="58" t="str">
         <f t="shared" ref="AH69:AH132" si="49">Z69</f>
@@ -11936,13 +12154,13 @@
       </c>
       <c r="AI69" s="13"/>
       <c r="AJ69" s="58" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AK69" s="58" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AL69" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN69" s="39" t="str">
         <f>VLOOKUP(AN68,$AD$7:$AH$135,4,FALSE)</f>
@@ -11963,7 +12181,7 @@
     </row>
     <row r="70" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B70" s="69" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C70" s="70"/>
       <c r="D70" s="55">
@@ -12043,11 +12261,11 @@
       </c>
       <c r="AA70" s="54"/>
       <c r="AB70" s="57" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="AC70" s="13"/>
       <c r="AD70" s="58" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="AE70" s="58" t="str">
         <f t="shared" si="47"/>
@@ -12055,7 +12273,7 @@
       </c>
       <c r="AF70" s="58"/>
       <c r="AG70" s="58" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="AH70" s="58" t="str">
         <f t="shared" si="49"/>
@@ -12063,13 +12281,13 @@
       </c>
       <c r="AI70" s="13"/>
       <c r="AJ70" s="58" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AK70" s="58" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AL70" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN70" s="39" t="str">
         <f>AD39</f>
@@ -12090,7 +12308,7 @@
     </row>
     <row r="71" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B71" s="69" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C71" s="70"/>
       <c r="D71" s="55">
@@ -12170,11 +12388,11 @@
       </c>
       <c r="AA71" s="54"/>
       <c r="AB71" s="57" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="AC71" s="13"/>
       <c r="AD71" s="58" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="AE71" s="58" t="str">
         <f t="shared" si="47"/>
@@ -12182,7 +12400,7 @@
       </c>
       <c r="AF71" s="58"/>
       <c r="AG71" s="58" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="AH71" s="58" t="str">
         <f t="shared" si="49"/>
@@ -12190,13 +12408,13 @@
       </c>
       <c r="AI71" s="13"/>
       <c r="AJ71" s="58" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AK71" s="58" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AL71" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN71" s="39" t="str">
         <f>VLOOKUP(AN70,$AD$7:$AH$135,4,FALSE)</f>
@@ -12217,7 +12435,7 @@
     </row>
     <row r="72" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B72" s="69" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C72" s="70"/>
       <c r="D72" s="55">
@@ -12297,11 +12515,11 @@
       </c>
       <c r="AA72" s="54"/>
       <c r="AB72" s="57" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="AC72" s="13"/>
       <c r="AD72" s="58" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AE72" s="58" t="str">
         <f t="shared" si="47"/>
@@ -12309,7 +12527,7 @@
       </c>
       <c r="AF72" s="58"/>
       <c r="AG72" s="58" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="AH72" s="58" t="str">
         <f t="shared" si="49"/>
@@ -12317,13 +12535,13 @@
       </c>
       <c r="AI72" s="13"/>
       <c r="AJ72" s="58" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AK72" s="58" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AL72" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN72" s="39" t="str">
         <f>AD40</f>
@@ -12344,7 +12562,7 @@
     </row>
     <row r="73" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B73" s="69" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C73" s="70"/>
       <c r="D73" s="55">
@@ -12424,11 +12642,11 @@
       </c>
       <c r="AA73" s="54"/>
       <c r="AB73" s="57" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="AC73" s="13"/>
       <c r="AD73" s="58" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="AE73" s="58" t="str">
         <f t="shared" si="47"/>
@@ -12436,7 +12654,7 @@
       </c>
       <c r="AF73" s="58"/>
       <c r="AG73" s="58" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AH73" s="58" t="str">
         <f t="shared" si="49"/>
@@ -12444,13 +12662,13 @@
       </c>
       <c r="AI73" s="13"/>
       <c r="AJ73" s="58" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AK73" s="58" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AL73" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN73" s="39" t="str">
         <f>VLOOKUP(AN72,$AD$7:$AH$135,4,FALSE)</f>
@@ -12471,7 +12689,7 @@
     </row>
     <row r="74" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B74" s="69" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C74" s="70"/>
       <c r="D74" s="55">
@@ -12551,11 +12769,11 @@
       </c>
       <c r="AA74" s="54"/>
       <c r="AB74" s="57" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AC74" s="13"/>
       <c r="AD74" s="58" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AE74" s="58" t="str">
         <f t="shared" si="47"/>
@@ -12563,7 +12781,7 @@
       </c>
       <c r="AF74" s="58"/>
       <c r="AG74" s="58" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AH74" s="58" t="str">
         <f t="shared" si="49"/>
@@ -12571,13 +12789,13 @@
       </c>
       <c r="AI74" s="13"/>
       <c r="AJ74" s="58" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AK74" s="58" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AL74" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN74" s="39" t="str">
         <f>AD41</f>
@@ -12598,7 +12816,7 @@
     </row>
     <row r="75" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B75" s="69" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C75" s="70"/>
       <c r="D75" s="55">
@@ -12678,11 +12896,11 @@
       </c>
       <c r="AA75" s="54"/>
       <c r="AB75" s="57" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AC75" s="13"/>
       <c r="AD75" s="58" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="AE75" s="58" t="str">
         <f t="shared" si="47"/>
@@ -12690,7 +12908,7 @@
       </c>
       <c r="AF75" s="58"/>
       <c r="AG75" s="58" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="AH75" s="58" t="str">
         <f t="shared" si="49"/>
@@ -12698,13 +12916,13 @@
       </c>
       <c r="AI75" s="13"/>
       <c r="AJ75" s="58" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AK75" s="58" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AL75" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN75" s="39" t="str">
         <f>VLOOKUP(AN74,$AD$7:$AH$135,4,FALSE)</f>
@@ -12725,7 +12943,7 @@
     </row>
     <row r="76" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B76" s="69" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C76" s="70"/>
       <c r="D76" s="55">
@@ -12805,11 +13023,11 @@
       </c>
       <c r="AA76" s="54"/>
       <c r="AB76" s="57" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="AC76" s="13"/>
       <c r="AD76" s="58" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="AE76" s="58" t="str">
         <f t="shared" si="47"/>
@@ -12817,7 +13035,7 @@
       </c>
       <c r="AF76" s="58"/>
       <c r="AG76" s="58" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AH76" s="58" t="str">
         <f t="shared" si="49"/>
@@ -12825,13 +13043,13 @@
       </c>
       <c r="AI76" s="13"/>
       <c r="AJ76" s="58" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AK76" s="58" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AL76" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN76" s="39" t="str">
         <f>AD42</f>
@@ -12852,7 +13070,7 @@
     </row>
     <row r="77" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B77" s="69" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C77" s="70"/>
       <c r="D77" s="55">
@@ -12932,11 +13150,11 @@
       </c>
       <c r="AA77" s="54"/>
       <c r="AB77" s="57" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="AC77" s="13"/>
       <c r="AD77" s="58" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="AE77" s="58" t="str">
         <f t="shared" si="47"/>
@@ -12944,7 +13162,7 @@
       </c>
       <c r="AF77" s="58"/>
       <c r="AG77" s="58" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="AH77" s="58" t="str">
         <f t="shared" si="49"/>
@@ -12952,13 +13170,13 @@
       </c>
       <c r="AI77" s="13"/>
       <c r="AJ77" s="58" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AK77" s="58" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AL77" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN77" s="39" t="str">
         <f>VLOOKUP(AN76,$AD$7:$AH$135,4,FALSE)</f>
@@ -12979,7 +13197,7 @@
     </row>
     <row r="78" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B78" s="69" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C78" s="70"/>
       <c r="D78" s="55">
@@ -13059,11 +13277,11 @@
       </c>
       <c r="AA78" s="54"/>
       <c r="AB78" s="57" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AC78" s="13"/>
       <c r="AD78" s="58" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="AE78" s="58" t="str">
         <f t="shared" si="47"/>
@@ -13071,7 +13289,7 @@
       </c>
       <c r="AF78" s="58"/>
       <c r="AG78" s="58" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="AH78" s="58" t="str">
         <f t="shared" si="49"/>
@@ -13079,13 +13297,13 @@
       </c>
       <c r="AI78" s="13"/>
       <c r="AJ78" s="58" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AK78" s="58" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AL78" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN78" s="39" t="str">
         <f>AD43</f>
@@ -13106,7 +13324,7 @@
     </row>
     <row r="79" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B79" s="69" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C79" s="70"/>
       <c r="D79" s="55">
@@ -13186,11 +13404,11 @@
       </c>
       <c r="AA79" s="54"/>
       <c r="AB79" s="57" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AC79" s="13"/>
       <c r="AD79" s="58" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="AE79" s="58" t="str">
         <f t="shared" si="47"/>
@@ -13198,7 +13416,7 @@
       </c>
       <c r="AF79" s="58"/>
       <c r="AG79" s="58" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="AH79" s="58" t="str">
         <f t="shared" si="49"/>
@@ -13206,13 +13424,13 @@
       </c>
       <c r="AI79" s="13"/>
       <c r="AJ79" s="58" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AK79" s="58" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AL79" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN79" s="39" t="str">
         <f>VLOOKUP(AN78,$AD$7:$AH$135,4,FALSE)</f>
@@ -13233,7 +13451,7 @@
     </row>
     <row r="80" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B80" s="69" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C80" s="70"/>
       <c r="D80" s="55">
@@ -13313,11 +13531,11 @@
       </c>
       <c r="AA80" s="54"/>
       <c r="AB80" s="57" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="AC80" s="13"/>
       <c r="AD80" s="58" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="AE80" s="58" t="str">
         <f t="shared" si="47"/>
@@ -13325,7 +13543,7 @@
       </c>
       <c r="AF80" s="58"/>
       <c r="AG80" s="58" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="AH80" s="58" t="str">
         <f t="shared" si="49"/>
@@ -13333,13 +13551,13 @@
       </c>
       <c r="AI80" s="13"/>
       <c r="AJ80" s="58" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AK80" s="58" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AL80" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN80" s="39" t="str">
         <f>AD44</f>
@@ -13360,7 +13578,7 @@
     </row>
     <row r="81" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B81" s="69" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C81" s="70"/>
       <c r="D81" s="55">
@@ -13440,11 +13658,11 @@
       </c>
       <c r="AA81" s="54"/>
       <c r="AB81" s="57" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AC81" s="13"/>
       <c r="AD81" s="58" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="AE81" s="58" t="str">
         <f t="shared" si="47"/>
@@ -13452,7 +13670,7 @@
       </c>
       <c r="AF81" s="58"/>
       <c r="AG81" s="58" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="AH81" s="58" t="str">
         <f t="shared" si="49"/>
@@ -13460,13 +13678,13 @@
       </c>
       <c r="AI81" s="13"/>
       <c r="AJ81" s="58" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AK81" s="58" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AL81" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN81" s="39" t="str">
         <f>VLOOKUP(AN80,$AD$7:$AH$135,4,FALSE)</f>
@@ -13487,7 +13705,7 @@
     </row>
     <row r="82" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B82" s="69" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C82" s="70"/>
       <c r="D82" s="55">
@@ -13567,11 +13785,11 @@
       </c>
       <c r="AA82" s="54"/>
       <c r="AB82" s="57" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="AC82" s="13"/>
       <c r="AD82" s="58" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="AE82" s="58" t="str">
         <f t="shared" si="47"/>
@@ -13579,7 +13797,7 @@
       </c>
       <c r="AF82" s="58"/>
       <c r="AG82" s="58" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="AH82" s="58" t="str">
         <f t="shared" si="49"/>
@@ -13587,13 +13805,13 @@
       </c>
       <c r="AI82" s="13"/>
       <c r="AJ82" s="58" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AK82" s="58" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AL82" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN82" s="39" t="str">
         <f>AD45</f>
@@ -13614,7 +13832,7 @@
     </row>
     <row r="83" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B83" s="69" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C83" s="70"/>
       <c r="D83" s="55">
@@ -13694,11 +13912,11 @@
       </c>
       <c r="AA83" s="54"/>
       <c r="AB83" s="57" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="AC83" s="13"/>
       <c r="AD83" s="58" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="AE83" s="58" t="str">
         <f t="shared" si="47"/>
@@ -13706,7 +13924,7 @@
       </c>
       <c r="AF83" s="58"/>
       <c r="AG83" s="58" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AH83" s="58" t="str">
         <f t="shared" si="49"/>
@@ -13714,13 +13932,13 @@
       </c>
       <c r="AI83" s="13"/>
       <c r="AJ83" s="58" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AK83" s="58" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AL83" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN83" s="39" t="str">
         <f>VLOOKUP(AN82,$AD$7:$AH$135,4,FALSE)</f>
@@ -13741,7 +13959,7 @@
     </row>
     <row r="84" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B84" s="69" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C84" s="70"/>
       <c r="D84" s="55">
@@ -13821,11 +14039,11 @@
       </c>
       <c r="AA84" s="54"/>
       <c r="AB84" s="57" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="AC84" s="13"/>
       <c r="AD84" s="58" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="AE84" s="58" t="str">
         <f t="shared" si="47"/>
@@ -13833,7 +14051,7 @@
       </c>
       <c r="AF84" s="58"/>
       <c r="AG84" s="58" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="AH84" s="58" t="str">
         <f t="shared" si="49"/>
@@ -13841,13 +14059,13 @@
       </c>
       <c r="AI84" s="13"/>
       <c r="AJ84" s="58" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AK84" s="58" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AL84" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN84" s="39" t="str">
         <f>AD46</f>
@@ -13868,7 +14086,7 @@
     </row>
     <row r="85" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B85" s="69" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C85" s="70"/>
       <c r="D85" s="55">
@@ -13948,11 +14166,11 @@
       </c>
       <c r="AA85" s="54"/>
       <c r="AB85" s="57" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="AC85" s="13"/>
       <c r="AD85" s="58" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="AE85" s="58" t="str">
         <f t="shared" si="47"/>
@@ -13960,7 +14178,7 @@
       </c>
       <c r="AF85" s="13"/>
       <c r="AG85" s="58" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="AH85" s="58" t="str">
         <f t="shared" si="49"/>
@@ -13971,10 +14189,10 @@
         <v>1</v>
       </c>
       <c r="AK85" s="58" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="AL85" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN85" s="39" t="str">
         <f>VLOOKUP(AN84,$AD$7:$AH$135,4,FALSE)</f>
@@ -13995,7 +14213,7 @@
     </row>
     <row r="86" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B86" s="69" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C86" s="70"/>
       <c r="D86" s="55">
@@ -14075,11 +14293,11 @@
       </c>
       <c r="AA86" s="54"/>
       <c r="AB86" s="57" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="AC86" s="13"/>
       <c r="AD86" s="58" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="AE86" s="58" t="str">
         <f t="shared" si="47"/>
@@ -14087,7 +14305,7 @@
       </c>
       <c r="AF86" s="13"/>
       <c r="AG86" s="58" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="AH86" s="58" t="str">
         <f t="shared" si="49"/>
@@ -14098,10 +14316,10 @@
         <v>1</v>
       </c>
       <c r="AK86" s="58" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="AL86" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN86" s="39" t="str">
         <f>AD47</f>
@@ -14122,7 +14340,7 @@
     </row>
     <row r="87" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B87" s="75" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C87" s="76"/>
       <c r="D87" s="45">
@@ -14202,11 +14420,11 @@
       </c>
       <c r="AA87" s="37"/>
       <c r="AB87" s="49" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="AC87" s="36"/>
       <c r="AD87" s="47" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE87" s="47" t="str">
         <f t="shared" si="47"/>
@@ -14214,7 +14432,7 @@
       </c>
       <c r="AF87" s="36"/>
       <c r="AG87" s="47" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="AH87" s="47" t="str">
         <f t="shared" si="49"/>
@@ -14225,7 +14443,7 @@
         <v>1</v>
       </c>
       <c r="AK87" s="37" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="AL87" s="38" t="s">
         <v>19</v>
@@ -14249,7 +14467,7 @@
     </row>
     <row r="88" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B88" s="69" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C88" s="70"/>
       <c r="D88" s="55">
@@ -14329,11 +14547,11 @@
       </c>
       <c r="AA88" s="54"/>
       <c r="AB88" s="57" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AC88" s="13"/>
       <c r="AD88" s="58" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="AE88" s="58" t="str">
         <f t="shared" si="47"/>
@@ -14341,7 +14559,7 @@
       </c>
       <c r="AF88" s="13"/>
       <c r="AG88" s="58" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AH88" s="58" t="str">
         <f t="shared" si="49"/>
@@ -14352,10 +14570,10 @@
         <v>1</v>
       </c>
       <c r="AK88" s="58" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="AL88" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN88" s="39" t="str">
         <f>AD48</f>
@@ -14376,7 +14594,7 @@
     </row>
     <row r="89" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B89" s="69" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C89" s="70"/>
       <c r="D89" s="55">
@@ -14456,11 +14674,11 @@
       </c>
       <c r="AA89" s="54"/>
       <c r="AB89" s="57" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="AC89" s="13"/>
       <c r="AD89" s="58" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="AE89" s="58" t="str">
         <f t="shared" si="47"/>
@@ -14468,7 +14686,7 @@
       </c>
       <c r="AF89" s="13"/>
       <c r="AG89" s="58" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="AH89" s="58" t="str">
         <f t="shared" si="49"/>
@@ -14479,10 +14697,10 @@
         <v>1</v>
       </c>
       <c r="AK89" s="58" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="AL89" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN89" s="39" t="str">
         <f>VLOOKUP(AN88,$AD$7:$AH$135,4,FALSE)</f>
@@ -14503,7 +14721,7 @@
     </row>
     <row r="90" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B90" s="69" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C90" s="70"/>
       <c r="D90" s="55">
@@ -14583,11 +14801,11 @@
       </c>
       <c r="AA90" s="54"/>
       <c r="AB90" s="57" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AC90" s="13"/>
       <c r="AD90" s="58" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="AE90" s="58" t="str">
         <f t="shared" si="47"/>
@@ -14595,7 +14813,7 @@
       </c>
       <c r="AF90" s="13"/>
       <c r="AG90" s="58" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="AH90" s="58" t="str">
         <f t="shared" si="49"/>
@@ -14606,10 +14824,10 @@
         <v>1</v>
       </c>
       <c r="AK90" s="58" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="AL90" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN90" s="39" t="str">
         <f>AD49</f>
@@ -14630,7 +14848,7 @@
     </row>
     <row r="91" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B91" s="69" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C91" s="70"/>
       <c r="D91" s="55">
@@ -14710,11 +14928,11 @@
       </c>
       <c r="AA91" s="54"/>
       <c r="AB91" s="57" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="AC91" s="13"/>
       <c r="AD91" s="58" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="AE91" s="58" t="str">
         <f t="shared" si="47"/>
@@ -14722,7 +14940,7 @@
       </c>
       <c r="AF91" s="13"/>
       <c r="AG91" s="58" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="AH91" s="58" t="str">
         <f t="shared" si="49"/>
@@ -14733,10 +14951,10 @@
         <v>1</v>
       </c>
       <c r="AK91" s="58" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="AL91" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN91" s="39" t="str">
         <f>VLOOKUP(AN90,$AD$7:$AH$135,4,FALSE)</f>
@@ -14757,7 +14975,7 @@
     </row>
     <row r="92" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B92" s="69" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C92" s="70"/>
       <c r="D92" s="55">
@@ -14837,11 +15055,11 @@
       </c>
       <c r="AA92" s="54"/>
       <c r="AB92" s="57" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AC92" s="13"/>
       <c r="AD92" s="58" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AE92" s="58" t="str">
         <f t="shared" si="47"/>
@@ -14849,7 +15067,7 @@
       </c>
       <c r="AF92" s="13"/>
       <c r="AG92" s="58" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="AH92" s="58" t="str">
         <f t="shared" si="49"/>
@@ -14860,10 +15078,10 @@
         <v>1</v>
       </c>
       <c r="AK92" s="58" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="AL92" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN92" s="39" t="str">
         <f>AD50</f>
@@ -14884,7 +15102,7 @@
     </row>
     <row r="93" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B93" s="69" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C93" s="70"/>
       <c r="D93" s="55">
@@ -14964,11 +15182,11 @@
       </c>
       <c r="AA93" s="54"/>
       <c r="AB93" s="57" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AC93" s="13"/>
       <c r="AD93" s="58" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AE93" s="58" t="str">
         <f t="shared" si="47"/>
@@ -14976,7 +15194,7 @@
       </c>
       <c r="AF93" s="13"/>
       <c r="AG93" s="58" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="AH93" s="58" t="str">
         <f t="shared" si="49"/>
@@ -14987,10 +15205,10 @@
         <v>1</v>
       </c>
       <c r="AK93" s="58" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="AL93" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN93" s="39" t="str">
         <f>VLOOKUP(AN92,$AD$7:$AH$135,4,FALSE)</f>
@@ -15011,7 +15229,7 @@
     </row>
     <row r="94" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B94" s="69" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C94" s="70"/>
       <c r="D94" s="55">
@@ -15091,11 +15309,11 @@
       </c>
       <c r="AA94" s="54"/>
       <c r="AB94" s="57" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="AC94" s="13"/>
       <c r="AD94" s="58" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="AE94" s="58" t="str">
         <f t="shared" si="47"/>
@@ -15103,7 +15321,7 @@
       </c>
       <c r="AF94" s="13"/>
       <c r="AG94" s="58" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="AH94" s="58" t="str">
         <f t="shared" si="49"/>
@@ -15114,10 +15332,10 @@
         <v>1</v>
       </c>
       <c r="AK94" s="58" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="AL94" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN94" s="39" t="str">
         <f>AD51</f>
@@ -15138,7 +15356,7 @@
     </row>
     <row r="95" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B95" s="81" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C95" s="82"/>
       <c r="D95" s="45">
@@ -15218,11 +15436,11 @@
       </c>
       <c r="AA95" s="37"/>
       <c r="AB95" s="49" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="AC95" s="36"/>
       <c r="AD95" s="47" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="AE95" s="47" t="str">
         <f t="shared" si="47"/>
@@ -15230,7 +15448,7 @@
       </c>
       <c r="AF95" s="36"/>
       <c r="AG95" s="47" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="AH95" s="47" t="str">
         <f t="shared" si="49"/>
@@ -15265,7 +15483,7 @@
     </row>
     <row r="96" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B96" s="81" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C96" s="82"/>
       <c r="D96" s="45">
@@ -15345,11 +15563,11 @@
       </c>
       <c r="AA96" s="37"/>
       <c r="AB96" s="49" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="AC96" s="36"/>
       <c r="AD96" s="47" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="AE96" s="47" t="str">
         <f t="shared" si="47"/>
@@ -15357,7 +15575,7 @@
       </c>
       <c r="AF96" s="36"/>
       <c r="AG96" s="47" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="AH96" s="47" t="str">
         <f t="shared" si="49"/>
@@ -15392,7 +15610,7 @@
     </row>
     <row r="97" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B97" s="81" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C97" s="82"/>
       <c r="D97" s="45">
@@ -15472,11 +15690,11 @@
       </c>
       <c r="AA97" s="37"/>
       <c r="AB97" s="49" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="AC97" s="36"/>
       <c r="AD97" s="47" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AE97" s="47" t="str">
         <f t="shared" si="47"/>
@@ -15484,7 +15702,7 @@
       </c>
       <c r="AF97" s="36"/>
       <c r="AG97" s="47" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="AH97" s="47" t="str">
         <f t="shared" si="49"/>
@@ -15519,7 +15737,7 @@
     </row>
     <row r="98" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B98" s="81" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C98" s="82"/>
       <c r="D98" s="45">
@@ -15599,11 +15817,11 @@
       </c>
       <c r="AA98" s="37"/>
       <c r="AB98" s="49" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="AC98" s="36"/>
       <c r="AD98" s="47" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="AE98" s="47" t="str">
         <f t="shared" si="47"/>
@@ -15611,7 +15829,7 @@
       </c>
       <c r="AF98" s="36"/>
       <c r="AG98" s="47" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="AH98" s="47" t="str">
         <f t="shared" si="49"/>
@@ -15646,7 +15864,7 @@
     </row>
     <row r="99" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B99" s="81" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C99" s="82"/>
       <c r="D99" s="45">
@@ -15726,11 +15944,11 @@
       </c>
       <c r="AA99" s="37"/>
       <c r="AB99" s="49" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="AC99" s="36"/>
       <c r="AD99" s="47" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AE99" s="47" t="str">
         <f t="shared" si="47"/>
@@ -15738,7 +15956,7 @@
       </c>
       <c r="AF99" s="36"/>
       <c r="AG99" s="47" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="AH99" s="47" t="str">
         <f t="shared" si="49"/>
@@ -15749,7 +15967,7 @@
         <v>3</v>
       </c>
       <c r="AK99" s="37" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="AL99" s="38" t="s">
         <v>19</v>
@@ -15773,7 +15991,7 @@
     </row>
     <row r="100" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B100" s="81" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C100" s="82"/>
       <c r="D100" s="45">
@@ -15853,11 +16071,11 @@
       </c>
       <c r="AA100" s="37"/>
       <c r="AB100" s="49" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="AC100" s="36"/>
       <c r="AD100" s="47" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="AE100" s="47" t="str">
         <f t="shared" si="47"/>
@@ -15865,7 +16083,7 @@
       </c>
       <c r="AF100" s="36"/>
       <c r="AG100" s="47" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="AH100" s="47" t="str">
         <f t="shared" si="49"/>
@@ -15873,10 +16091,10 @@
       </c>
       <c r="AI100" s="36"/>
       <c r="AJ100" s="37" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="AK100" s="37" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AL100" s="38" t="s">
         <v>19</v>
@@ -15900,7 +16118,7 @@
     </row>
     <row r="101" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B101" s="85" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C101" s="86"/>
       <c r="D101" s="55">
@@ -15980,11 +16198,11 @@
       </c>
       <c r="AA101" s="54"/>
       <c r="AB101" s="57" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="AC101" s="13"/>
       <c r="AD101" s="58" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="AE101" s="58" t="str">
         <f t="shared" si="47"/>
@@ -15992,7 +16210,7 @@
       </c>
       <c r="AF101" s="13"/>
       <c r="AG101" s="58" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="AH101" s="58" t="str">
         <f t="shared" si="49"/>
@@ -16002,7 +16220,7 @@
       <c r="AJ101" s="58"/>
       <c r="AK101" s="58"/>
       <c r="AL101" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN101" s="39" t="str">
         <f>VLOOKUP(AN100,$AD$7:$AH$135,4,FALSE)</f>
@@ -16023,7 +16241,7 @@
     </row>
     <row r="102" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B102" s="85" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C102" s="86"/>
       <c r="D102" s="55">
@@ -16103,11 +16321,11 @@
       </c>
       <c r="AA102" s="54"/>
       <c r="AB102" s="57" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="AC102" s="13"/>
       <c r="AD102" s="58" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="AE102" s="58" t="str">
         <f t="shared" si="47"/>
@@ -16115,7 +16333,7 @@
       </c>
       <c r="AF102" s="13"/>
       <c r="AG102" s="58" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AH102" s="58" t="str">
         <f t="shared" si="49"/>
@@ -16125,7 +16343,7 @@
       <c r="AJ102" s="58"/>
       <c r="AK102" s="58"/>
       <c r="AL102" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN102" s="39" t="str">
         <f>AD55</f>
@@ -16146,7 +16364,7 @@
     </row>
     <row r="103" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B103" s="85" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C103" s="86"/>
       <c r="D103" s="55">
@@ -16226,11 +16444,11 @@
       </c>
       <c r="AA103" s="54"/>
       <c r="AB103" s="57" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="AC103" s="13"/>
       <c r="AD103" s="58" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="AE103" s="58" t="str">
         <f t="shared" si="47"/>
@@ -16238,7 +16456,7 @@
       </c>
       <c r="AF103" s="13"/>
       <c r="AG103" s="58" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="AH103" s="58" t="str">
         <f t="shared" si="49"/>
@@ -16248,7 +16466,7 @@
       <c r="AJ103" s="58"/>
       <c r="AK103" s="58"/>
       <c r="AL103" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN103" s="39" t="str">
         <f>VLOOKUP(AN102,$AD$7:$AH$135,4,FALSE)</f>
@@ -16269,7 +16487,7 @@
     </row>
     <row r="104" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B104" s="85" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C104" s="86"/>
       <c r="D104" s="55">
@@ -16349,11 +16567,11 @@
       </c>
       <c r="AA104" s="54"/>
       <c r="AB104" s="57" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="AC104" s="13"/>
       <c r="AD104" s="58" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="AE104" s="58" t="str">
         <f t="shared" si="47"/>
@@ -16361,7 +16579,7 @@
       </c>
       <c r="AF104" s="13"/>
       <c r="AG104" s="58" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="AH104" s="58" t="str">
         <f t="shared" si="49"/>
@@ -16371,7 +16589,7 @@
       <c r="AJ104" s="58"/>
       <c r="AK104" s="58"/>
       <c r="AL104" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN104" s="39" t="str">
         <f>AD56</f>
@@ -16392,7 +16610,7 @@
     </row>
     <row r="105" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B105" s="85" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C105" s="86"/>
       <c r="D105" s="55">
@@ -16472,11 +16690,11 @@
       </c>
       <c r="AA105" s="54"/>
       <c r="AB105" s="57" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="AC105" s="13"/>
       <c r="AD105" s="58" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="AE105" s="58" t="str">
         <f t="shared" si="47"/>
@@ -16484,7 +16702,7 @@
       </c>
       <c r="AF105" s="13"/>
       <c r="AG105" s="58" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="AH105" s="58" t="str">
         <f t="shared" si="49"/>
@@ -16494,7 +16712,7 @@
       <c r="AJ105" s="58"/>
       <c r="AK105" s="58"/>
       <c r="AL105" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN105" s="39" t="str">
         <f>VLOOKUP(AN104,$AD$7:$AH$135,4,FALSE)</f>
@@ -16515,7 +16733,7 @@
     </row>
     <row r="106" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B106" s="85" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C106" s="86"/>
       <c r="D106" s="55">
@@ -16595,11 +16813,11 @@
       </c>
       <c r="AA106" s="54"/>
       <c r="AB106" s="57" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="AC106" s="13"/>
       <c r="AD106" s="58" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="AE106" s="58" t="str">
         <f t="shared" si="47"/>
@@ -16607,7 +16825,7 @@
       </c>
       <c r="AF106" s="13"/>
       <c r="AG106" s="58" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="AH106" s="58" t="str">
         <f t="shared" si="49"/>
@@ -16617,7 +16835,7 @@
       <c r="AJ106" s="58"/>
       <c r="AK106" s="58"/>
       <c r="AL106" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN106" s="39" t="str">
         <f>AD57</f>
@@ -16638,7 +16856,7 @@
     </row>
     <row r="107" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B107" s="85" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C107" s="86"/>
       <c r="D107" s="55">
@@ -16718,11 +16936,11 @@
       </c>
       <c r="AA107" s="54"/>
       <c r="AB107" s="57" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="AC107" s="13"/>
       <c r="AD107" s="58" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="AE107" s="58" t="str">
         <f t="shared" si="47"/>
@@ -16730,7 +16948,7 @@
       </c>
       <c r="AF107" s="13"/>
       <c r="AG107" s="58" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="AH107" s="58" t="str">
         <f t="shared" si="49"/>
@@ -16740,7 +16958,7 @@
       <c r="AJ107" s="58"/>
       <c r="AK107" s="58"/>
       <c r="AL107" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN107" s="39" t="str">
         <f>VLOOKUP(AN106,$AD$7:$AH$135,4,FALSE)</f>
@@ -16761,7 +16979,7 @@
     </row>
     <row r="108" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B108" s="85" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C108" s="86"/>
       <c r="D108" s="55">
@@ -16841,11 +17059,11 @@
       </c>
       <c r="AA108" s="54"/>
       <c r="AB108" s="57" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="AC108" s="13"/>
       <c r="AD108" s="58" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="AE108" s="58" t="str">
         <f t="shared" si="47"/>
@@ -16853,7 +17071,7 @@
       </c>
       <c r="AF108" s="13"/>
       <c r="AG108" s="58" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="AH108" s="58" t="str">
         <f t="shared" si="49"/>
@@ -16863,7 +17081,7 @@
       <c r="AJ108" s="58"/>
       <c r="AK108" s="58"/>
       <c r="AL108" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN108" s="39" t="str">
         <f>AD58</f>
@@ -16884,7 +17102,7 @@
     </row>
     <row r="109" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B109" s="85" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C109" s="86"/>
       <c r="D109" s="55">
@@ -16964,11 +17182,11 @@
       </c>
       <c r="AA109" s="54"/>
       <c r="AB109" s="57" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="AC109" s="13"/>
       <c r="AD109" s="58" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="AE109" s="58" t="str">
         <f t="shared" si="47"/>
@@ -16976,7 +17194,7 @@
       </c>
       <c r="AF109" s="13"/>
       <c r="AG109" s="58" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="AH109" s="58" t="str">
         <f t="shared" si="49"/>
@@ -16986,7 +17204,7 @@
       <c r="AJ109" s="58"/>
       <c r="AK109" s="58"/>
       <c r="AL109" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN109" s="39" t="str">
         <f>VLOOKUP(AN108,$AD$7:$AH$135,4,FALSE)</f>
@@ -17007,7 +17225,7 @@
     </row>
     <row r="110" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B110" s="85" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C110" s="86"/>
       <c r="D110" s="55">
@@ -17087,11 +17305,11 @@
       </c>
       <c r="AA110" s="54"/>
       <c r="AB110" s="57" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="AC110" s="13"/>
       <c r="AD110" s="58" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AE110" s="58" t="str">
         <f t="shared" si="47"/>
@@ -17099,7 +17317,7 @@
       </c>
       <c r="AF110" s="13"/>
       <c r="AG110" s="58" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="AH110" s="58" t="str">
         <f t="shared" si="49"/>
@@ -17109,7 +17327,7 @@
       <c r="AJ110" s="58"/>
       <c r="AK110" s="58"/>
       <c r="AL110" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN110" s="39" t="str">
         <f>AD59</f>
@@ -17130,7 +17348,7 @@
     </row>
     <row r="111" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B111" s="85" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C111" s="86"/>
       <c r="D111" s="55">
@@ -17210,11 +17428,11 @@
       </c>
       <c r="AA111" s="54"/>
       <c r="AB111" s="57" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="AC111" s="13"/>
       <c r="AD111" s="58" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="AE111" s="58" t="str">
         <f t="shared" si="47"/>
@@ -17222,7 +17440,7 @@
       </c>
       <c r="AF111" s="13"/>
       <c r="AG111" s="58" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="AH111" s="58" t="str">
         <f t="shared" si="49"/>
@@ -17232,7 +17450,7 @@
       <c r="AJ111" s="58"/>
       <c r="AK111" s="58"/>
       <c r="AL111" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN111" s="39" t="str">
         <f>VLOOKUP(AN110,$AD$7:$AH$135,4,FALSE)</f>
@@ -17253,7 +17471,7 @@
     </row>
     <row r="112" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B112" s="85" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C112" s="86"/>
       <c r="D112" s="55">
@@ -17333,11 +17551,11 @@
       </c>
       <c r="AA112" s="54"/>
       <c r="AB112" s="57" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="AC112" s="13"/>
       <c r="AD112" s="58" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="AE112" s="58" t="str">
         <f t="shared" si="47"/>
@@ -17345,7 +17563,7 @@
       </c>
       <c r="AF112" s="13"/>
       <c r="AG112" s="58" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="AH112" s="58" t="str">
         <f t="shared" si="49"/>
@@ -17355,7 +17573,7 @@
       <c r="AJ112" s="58"/>
       <c r="AK112" s="58"/>
       <c r="AL112" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN112" s="39" t="str">
         <f>AD60</f>
@@ -17376,7 +17594,7 @@
     </row>
     <row r="113" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B113" s="85" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C113" s="86"/>
       <c r="D113" s="55">
@@ -17456,11 +17674,11 @@
       </c>
       <c r="AA113" s="54"/>
       <c r="AB113" s="57" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="AC113" s="13"/>
       <c r="AD113" s="58" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="AE113" s="58" t="str">
         <f t="shared" si="47"/>
@@ -17468,7 +17686,7 @@
       </c>
       <c r="AF113" s="13"/>
       <c r="AG113" s="58" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="AH113" s="58" t="str">
         <f t="shared" si="49"/>
@@ -17478,7 +17696,7 @@
       <c r="AJ113" s="58"/>
       <c r="AK113" s="58"/>
       <c r="AL113" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN113" s="39" t="str">
         <f>VLOOKUP(AN112,$AD$7:$AH$135,4,FALSE)</f>
@@ -17499,7 +17717,7 @@
     </row>
     <row r="114" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B114" s="85" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C114" s="86"/>
       <c r="D114" s="55">
@@ -17579,11 +17797,11 @@
       </c>
       <c r="AA114" s="54"/>
       <c r="AB114" s="57" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="AC114" s="13"/>
       <c r="AD114" s="58" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="AE114" s="58" t="str">
         <f t="shared" si="47"/>
@@ -17591,7 +17809,7 @@
       </c>
       <c r="AF114" s="13"/>
       <c r="AG114" s="58" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="AH114" s="58" t="str">
         <f t="shared" si="49"/>
@@ -17601,7 +17819,7 @@
       <c r="AJ114" s="58"/>
       <c r="AK114" s="58"/>
       <c r="AL114" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN114" s="39" t="str">
         <f>AD61</f>
@@ -17622,7 +17840,7 @@
     </row>
     <row r="115" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B115" s="85" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C115" s="86"/>
       <c r="D115" s="55">
@@ -17702,11 +17920,11 @@
       </c>
       <c r="AA115" s="54"/>
       <c r="AB115" s="57" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="AC115" s="13"/>
       <c r="AD115" s="58" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="AE115" s="58" t="str">
         <f t="shared" si="47"/>
@@ -17714,7 +17932,7 @@
       </c>
       <c r="AF115" s="13"/>
       <c r="AG115" s="58" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="AH115" s="58" t="str">
         <f t="shared" si="49"/>
@@ -17724,7 +17942,7 @@
       <c r="AJ115" s="58"/>
       <c r="AK115" s="58"/>
       <c r="AL115" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN115" s="39" t="str">
         <f>VLOOKUP(AN114,$AD$7:$AH$135,4,FALSE)</f>
@@ -17745,7 +17963,7 @@
     </row>
     <row r="116" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B116" s="85" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C116" s="86"/>
       <c r="D116" s="55">
@@ -17825,11 +18043,11 @@
       </c>
       <c r="AA116" s="54"/>
       <c r="AB116" s="57" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="AC116" s="13"/>
       <c r="AD116" s="58" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="AE116" s="58" t="str">
         <f t="shared" si="47"/>
@@ -17837,7 +18055,7 @@
       </c>
       <c r="AF116" s="13"/>
       <c r="AG116" s="58" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="AH116" s="58" t="str">
         <f t="shared" si="49"/>
@@ -17847,7 +18065,7 @@
       <c r="AJ116" s="58"/>
       <c r="AK116" s="58"/>
       <c r="AL116" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN116" s="39" t="str">
         <f>AD62</f>
@@ -17868,7 +18086,7 @@
     </row>
     <row r="117" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B117" s="85" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C117" s="86"/>
       <c r="D117" s="55">
@@ -17948,11 +18166,11 @@
       </c>
       <c r="AA117" s="54"/>
       <c r="AB117" s="57" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="AC117" s="13"/>
       <c r="AD117" s="58" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AE117" s="58" t="str">
         <f t="shared" si="47"/>
@@ -17960,7 +18178,7 @@
       </c>
       <c r="AF117" s="13"/>
       <c r="AG117" s="58" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="AH117" s="58" t="str">
         <f t="shared" si="49"/>
@@ -17970,7 +18188,7 @@
       <c r="AJ117" s="58"/>
       <c r="AK117" s="58"/>
       <c r="AL117" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN117" s="39" t="str">
         <f>VLOOKUP(AN116,$AD$7:$AH$135,4,FALSE)</f>
@@ -17991,7 +18209,7 @@
     </row>
     <row r="118" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B118" s="85" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C118" s="86"/>
       <c r="D118" s="55">
@@ -18071,11 +18289,11 @@
       </c>
       <c r="AA118" s="54"/>
       <c r="AB118" s="57" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="AC118" s="13"/>
       <c r="AD118" s="58" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="AE118" s="58" t="str">
         <f t="shared" si="47"/>
@@ -18083,7 +18301,7 @@
       </c>
       <c r="AF118" s="13"/>
       <c r="AG118" s="58" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="AH118" s="58" t="str">
         <f t="shared" si="49"/>
@@ -18093,7 +18311,7 @@
       <c r="AJ118" s="58"/>
       <c r="AK118" s="58"/>
       <c r="AL118" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN118" s="39" t="str">
         <f>AD63</f>
@@ -18114,7 +18332,7 @@
     </row>
     <row r="119" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B119" s="85" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C119" s="86"/>
       <c r="D119" s="55">
@@ -18194,11 +18412,11 @@
       </c>
       <c r="AA119" s="54"/>
       <c r="AB119" s="57" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="AC119" s="13"/>
       <c r="AD119" s="58" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="AE119" s="58" t="str">
         <f t="shared" si="47"/>
@@ -18206,7 +18424,7 @@
       </c>
       <c r="AF119" s="13"/>
       <c r="AG119" s="58" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="AH119" s="58" t="str">
         <f t="shared" si="49"/>
@@ -18216,7 +18434,7 @@
       <c r="AJ119" s="58"/>
       <c r="AK119" s="58"/>
       <c r="AL119" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN119" s="39" t="str">
         <f>VLOOKUP(AN118,$AD$7:$AH$135,4,FALSE)</f>
@@ -18237,7 +18455,7 @@
     </row>
     <row r="120" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B120" s="85" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C120" s="86"/>
       <c r="D120" s="55">
@@ -18317,11 +18535,11 @@
       </c>
       <c r="AA120" s="54"/>
       <c r="AB120" s="57" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="AC120" s="13"/>
       <c r="AD120" s="58" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="AE120" s="58" t="str">
         <f t="shared" si="47"/>
@@ -18329,7 +18547,7 @@
       </c>
       <c r="AF120" s="13"/>
       <c r="AG120" s="58" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="AH120" s="58" t="str">
         <f t="shared" si="49"/>
@@ -18339,7 +18557,7 @@
       <c r="AJ120" s="58"/>
       <c r="AK120" s="58"/>
       <c r="AL120" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN120" s="39" t="str">
         <f>AD64</f>
@@ -18360,7 +18578,7 @@
     </row>
     <row r="121" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B121" s="85" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C121" s="86"/>
       <c r="D121" s="55">
@@ -18440,11 +18658,11 @@
       </c>
       <c r="AA121" s="54"/>
       <c r="AB121" s="57" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="AC121" s="13"/>
       <c r="AD121" s="58" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="AE121" s="58" t="str">
         <f t="shared" si="47"/>
@@ -18452,7 +18670,7 @@
       </c>
       <c r="AF121" s="13"/>
       <c r="AG121" s="58" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="AH121" s="58" t="str">
         <f t="shared" si="49"/>
@@ -18462,7 +18680,7 @@
       <c r="AJ121" s="58"/>
       <c r="AK121" s="58"/>
       <c r="AL121" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN121" s="39" t="str">
         <f>VLOOKUP(AN120,$AD$7:$AH$135,4,FALSE)</f>
@@ -18483,7 +18701,7 @@
     </row>
     <row r="122" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B122" s="85" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C122" s="86"/>
       <c r="D122" s="55">
@@ -18563,11 +18781,11 @@
       </c>
       <c r="AA122" s="54"/>
       <c r="AB122" s="57" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="AC122" s="13"/>
       <c r="AD122" s="58" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="AE122" s="58" t="str">
         <f t="shared" si="47"/>
@@ -18575,7 +18793,7 @@
       </c>
       <c r="AF122" s="13"/>
       <c r="AG122" s="58" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="AH122" s="58" t="str">
         <f t="shared" si="49"/>
@@ -18585,7 +18803,7 @@
       <c r="AJ122" s="58"/>
       <c r="AK122" s="58"/>
       <c r="AL122" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN122" s="39" t="str">
         <f>AD65</f>
@@ -18606,7 +18824,7 @@
     </row>
     <row r="123" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B123" s="85" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C123" s="86"/>
       <c r="D123" s="55">
@@ -18686,11 +18904,11 @@
       </c>
       <c r="AA123" s="54"/>
       <c r="AB123" s="57" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="AC123" s="13"/>
       <c r="AD123" s="58" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="AE123" s="58" t="str">
         <f t="shared" si="47"/>
@@ -18698,7 +18916,7 @@
       </c>
       <c r="AF123" s="13"/>
       <c r="AG123" s="58" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="AH123" s="58" t="str">
         <f t="shared" si="49"/>
@@ -18708,7 +18926,7 @@
       <c r="AJ123" s="58"/>
       <c r="AK123" s="58"/>
       <c r="AL123" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN123" s="39" t="str">
         <f>VLOOKUP(AN122,$AD$7:$AH$135,4,FALSE)</f>
@@ -18729,7 +18947,7 @@
     </row>
     <row r="124" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B124" s="85" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C124" s="86"/>
       <c r="D124" s="55">
@@ -18809,11 +19027,11 @@
       </c>
       <c r="AA124" s="54"/>
       <c r="AB124" s="57" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="AC124" s="13"/>
       <c r="AD124" s="58" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="AE124" s="58" t="str">
         <f t="shared" si="47"/>
@@ -18821,7 +19039,7 @@
       </c>
       <c r="AF124" s="13"/>
       <c r="AG124" s="58" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="AH124" s="58" t="str">
         <f t="shared" si="49"/>
@@ -18831,7 +19049,7 @@
       <c r="AJ124" s="58"/>
       <c r="AK124" s="58"/>
       <c r="AL124" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN124" s="39" t="str">
         <f>AD66</f>
@@ -18852,7 +19070,7 @@
     </row>
     <row r="125" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B125" s="85" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C125" s="86"/>
       <c r="D125" s="55">
@@ -18932,11 +19150,11 @@
       </c>
       <c r="AA125" s="54"/>
       <c r="AB125" s="57" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="AC125" s="13"/>
       <c r="AD125" s="58" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="AE125" s="58" t="str">
         <f t="shared" si="47"/>
@@ -18944,7 +19162,7 @@
       </c>
       <c r="AF125" s="13"/>
       <c r="AG125" s="58" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="AH125" s="58" t="str">
         <f t="shared" si="49"/>
@@ -18954,7 +19172,7 @@
       <c r="AJ125" s="58"/>
       <c r="AK125" s="58"/>
       <c r="AL125" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN125" s="39" t="str">
         <f>VLOOKUP(AN124,$AD$7:$AH$135,4,FALSE)</f>
@@ -18975,7 +19193,7 @@
     </row>
     <row r="126" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B126" s="85" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C126" s="86"/>
       <c r="D126" s="55">
@@ -19055,11 +19273,11 @@
       </c>
       <c r="AA126" s="54"/>
       <c r="AB126" s="57" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="AC126" s="13"/>
       <c r="AD126" s="58" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="AE126" s="58" t="str">
         <f t="shared" si="47"/>
@@ -19067,7 +19285,7 @@
       </c>
       <c r="AF126" s="13"/>
       <c r="AG126" s="58" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="AH126" s="58" t="str">
         <f t="shared" si="49"/>
@@ -19077,7 +19295,7 @@
       <c r="AJ126" s="58"/>
       <c r="AK126" s="58"/>
       <c r="AL126" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN126" s="39" t="str">
         <f>AD67</f>
@@ -19098,7 +19316,7 @@
     </row>
     <row r="127" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B127" s="85" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C127" s="86"/>
       <c r="D127" s="55">
@@ -19178,11 +19396,11 @@
       </c>
       <c r="AA127" s="54"/>
       <c r="AB127" s="57" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="AC127" s="13"/>
       <c r="AD127" s="58" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="AE127" s="58" t="str">
         <f t="shared" si="47"/>
@@ -19190,7 +19408,7 @@
       </c>
       <c r="AF127" s="13"/>
       <c r="AG127" s="58" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="AH127" s="58" t="str">
         <f t="shared" si="49"/>
@@ -19200,7 +19418,7 @@
       <c r="AJ127" s="58"/>
       <c r="AK127" s="58"/>
       <c r="AL127" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN127" s="39" t="str">
         <f>VLOOKUP(AN126,$AD$7:$AH$135,4,FALSE)</f>
@@ -19221,7 +19439,7 @@
     </row>
     <row r="128" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B128" s="85" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C128" s="86"/>
       <c r="D128" s="55">
@@ -19301,11 +19519,11 @@
       </c>
       <c r="AA128" s="54"/>
       <c r="AB128" s="57" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="AC128" s="13"/>
       <c r="AD128" s="58" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="AE128" s="58" t="str">
         <f t="shared" si="47"/>
@@ -19313,7 +19531,7 @@
       </c>
       <c r="AF128" s="13"/>
       <c r="AG128" s="58" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="AH128" s="58" t="str">
         <f t="shared" si="49"/>
@@ -19323,7 +19541,7 @@
       <c r="AJ128" s="58"/>
       <c r="AK128" s="58"/>
       <c r="AL128" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN128" s="39" t="str">
         <f>AD68</f>
@@ -19344,7 +19562,7 @@
     </row>
     <row r="129" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B129" s="85" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C129" s="86"/>
       <c r="D129" s="55">
@@ -19424,11 +19642,11 @@
       </c>
       <c r="AA129" s="54"/>
       <c r="AB129" s="57" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="AC129" s="13"/>
       <c r="AD129" s="58" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="AE129" s="58" t="str">
         <f t="shared" si="47"/>
@@ -19436,7 +19654,7 @@
       </c>
       <c r="AF129" s="13"/>
       <c r="AG129" s="58" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="AH129" s="58" t="str">
         <f t="shared" si="49"/>
@@ -19446,7 +19664,7 @@
       <c r="AJ129" s="58"/>
       <c r="AK129" s="58"/>
       <c r="AL129" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN129" s="39" t="str">
         <f>VLOOKUP(AN128,$AD$7:$AH$135,4,FALSE)</f>
@@ -19467,7 +19685,7 @@
     </row>
     <row r="130" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B130" s="85" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C130" s="86"/>
       <c r="D130" s="55">
@@ -19547,11 +19765,11 @@
       </c>
       <c r="AA130" s="54"/>
       <c r="AB130" s="57" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="AC130" s="13"/>
       <c r="AD130" s="58" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="AE130" s="58" t="str">
         <f t="shared" si="47"/>
@@ -19559,7 +19777,7 @@
       </c>
       <c r="AF130" s="13"/>
       <c r="AG130" s="58" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="AH130" s="58" t="str">
         <f t="shared" si="49"/>
@@ -19569,7 +19787,7 @@
       <c r="AJ130" s="58"/>
       <c r="AK130" s="58"/>
       <c r="AL130" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN130" s="39" t="str">
         <f>AD69</f>
@@ -19590,7 +19808,7 @@
     </row>
     <row r="131" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B131" s="85" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C131" s="86"/>
       <c r="D131" s="55">
@@ -19670,11 +19888,11 @@
       </c>
       <c r="AA131" s="54"/>
       <c r="AB131" s="57" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="AC131" s="13"/>
       <c r="AD131" s="58" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="AE131" s="58" t="str">
         <f t="shared" ref="AE131:AE135" si="88">Y131</f>
@@ -19682,7 +19900,7 @@
       </c>
       <c r="AF131" s="13"/>
       <c r="AG131" s="58" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="AH131" s="58" t="str">
         <f t="shared" si="49"/>
@@ -19692,7 +19910,7 @@
       <c r="AJ131" s="58"/>
       <c r="AK131" s="58"/>
       <c r="AL131" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN131" s="39" t="str">
         <f>VLOOKUP(AN130,$AD$7:$AH$135,4,FALSE)</f>
@@ -19713,7 +19931,7 @@
     </row>
     <row r="132" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B132" s="85" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C132" s="86"/>
       <c r="D132" s="55">
@@ -19793,11 +20011,11 @@
       </c>
       <c r="AA132" s="54"/>
       <c r="AB132" s="57" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="AC132" s="13"/>
       <c r="AD132" s="58" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="AE132" s="58" t="str">
         <f t="shared" si="88"/>
@@ -19805,7 +20023,7 @@
       </c>
       <c r="AF132" s="13"/>
       <c r="AG132" s="58" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="AH132" s="58" t="str">
         <f t="shared" si="49"/>
@@ -19815,7 +20033,7 @@
       <c r="AJ132" s="58"/>
       <c r="AK132" s="58"/>
       <c r="AL132" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN132" s="39" t="str">
         <f>AD70</f>
@@ -19836,7 +20054,7 @@
     </row>
     <row r="133" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B133" s="85" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C133" s="86"/>
       <c r="D133" s="55">
@@ -19916,11 +20134,11 @@
       </c>
       <c r="AA133" s="54"/>
       <c r="AB133" s="57" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="AC133" s="13"/>
       <c r="AD133" s="58" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="AE133" s="58" t="str">
         <f t="shared" si="88"/>
@@ -19928,7 +20146,7 @@
       </c>
       <c r="AF133" s="13"/>
       <c r="AG133" s="58" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="AH133" s="58" t="str">
         <f t="shared" ref="AH133:AH135" si="90">Z133</f>
@@ -19938,7 +20156,7 @@
       <c r="AJ133" s="58"/>
       <c r="AK133" s="58"/>
       <c r="AL133" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN133" s="39" t="str">
         <f>VLOOKUP(AN132,$AD$7:$AH$135,4,FALSE)</f>
@@ -19959,7 +20177,7 @@
     </row>
     <row r="134" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B134" s="85" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C134" s="86"/>
       <c r="D134" s="55">
@@ -20039,11 +20257,11 @@
       </c>
       <c r="AA134" s="54"/>
       <c r="AB134" s="57" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="AC134" s="13"/>
       <c r="AD134" s="58" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="AE134" s="58" t="str">
         <f t="shared" si="88"/>
@@ -20051,7 +20269,7 @@
       </c>
       <c r="AF134" s="13"/>
       <c r="AG134" s="58" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="AH134" s="58" t="str">
         <f t="shared" si="90"/>
@@ -20061,7 +20279,7 @@
       <c r="AJ134" s="58"/>
       <c r="AK134" s="58"/>
       <c r="AL134" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN134" s="39" t="str">
         <f>AD71</f>
@@ -20082,7 +20300,7 @@
     </row>
     <row r="135" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B135" s="89" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C135" s="90"/>
       <c r="D135" s="65">
@@ -20162,11 +20380,11 @@
       </c>
       <c r="AA135" s="64"/>
       <c r="AB135" s="95" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="AC135" s="67"/>
       <c r="AD135" s="68" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="AE135" s="68" t="str">
         <f t="shared" si="88"/>
@@ -20174,7 +20392,7 @@
       </c>
       <c r="AF135" s="67"/>
       <c r="AG135" s="68" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="AH135" s="68" t="str">
         <f t="shared" si="90"/>
@@ -20184,7 +20402,7 @@
       <c r="AJ135" s="68"/>
       <c r="AK135" s="68"/>
       <c r="AL135" s="96" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN135" s="39" t="str">
         <f>VLOOKUP(AN134,$AD$7:$AH$135,4,FALSE)</f>
@@ -22568,7 +22786,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43542ED-E1C3-4BED-9AE4-43EFC6549269}">
-  <dimension ref="B2:H277"/>
+  <dimension ref="B1:H277"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -22581,10 +22799,11 @@
     <col min="6" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="101"/>
       <c r="D2" s="102" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="E2" s="103"/>
       <c r="F2" s="103"/>
@@ -22593,11 +22812,11 @@
     </row>
     <row r="3" spans="2:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B3" s="104" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="D3" s="103"/>
       <c r="E3" s="105" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="F3" s="103"/>
       <c r="G3" s="103"/>
@@ -22605,11 +22824,11 @@
     </row>
     <row r="4" spans="2:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B4" s="104" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="D4" s="103"/>
       <c r="E4" s="105" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="F4" s="103"/>
       <c r="G4" s="103"/>
@@ -22617,28 +22836,28 @@
     </row>
     <row r="5" spans="2:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B5" s="104" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="D5" s="106"/>
     </row>
     <row r="6" spans="2:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B6" s="104" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B7" s="104" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B8" s="104" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B9" s="104" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="13.5" x14ac:dyDescent="0.25">
@@ -22655,7 +22874,7 @@
     </row>
     <row r="12" spans="2:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B12" s="104" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="13.5" x14ac:dyDescent="0.25">
@@ -22663,12 +22882,12 @@
     </row>
     <row r="14" spans="2:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B14" s="104" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B15" s="104" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="13.5" x14ac:dyDescent="0.25">
@@ -22676,10 +22895,10 @@
     </row>
     <row r="17" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="104" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="D17" s="129" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="E17" s="130"/>
     </row>
@@ -22698,7 +22917,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="109" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="13.5" x14ac:dyDescent="0.25">
@@ -22711,7 +22930,7 @@
         <v>255</v>
       </c>
       <c r="E20" s="109" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="13.5" x14ac:dyDescent="0.25">
@@ -22724,7 +22943,7 @@
         <v>128</v>
       </c>
       <c r="E21" s="109" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="13.5" x14ac:dyDescent="0.25">
@@ -22737,7 +22956,7 @@
         <v>127</v>
       </c>
       <c r="E22" s="109" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="13.5" x14ac:dyDescent="0.25">
@@ -22827,7 +23046,7 @@
     <row r="29" spans="2:5" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B29" s="107" t="str">
         <f>'NB Command Set'!AQ18</f>
-        <v>#define STPGADDR 0x84 /* Command Set Page Base Address */</v>
+        <v>#define STPGADDR 0x84 /* Command Set Flash Page Base Address */</v>
       </c>
       <c r="D29" s="108">
         <f t="shared" si="0"/>
@@ -22841,7 +23060,7 @@
     <row r="30" spans="2:5" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B30" s="107" t="str">
         <f>'NB Command Set'!AQ19</f>
-        <v>#define AKPGADDR 0x7B /* Acknowledge Set Page Base Address command */</v>
+        <v>#define AKPGADDR 0x7B /* Acknowledge Set Flash Page Base Address command */</v>
       </c>
       <c r="D30" s="108">
         <f t="shared" si="0"/>
@@ -22939,7 +23158,7 @@
     <row r="37" spans="2:5" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B37" s="107" t="str">
         <f>'NB Command Set'!AQ26</f>
-        <v>#define READDEVS 0x88 /* Command Read Device Signature */</v>
+        <v>#define READDEVS 0x88 /* Command Read Device Signature And Fuses */</v>
       </c>
       <c r="D37" s="108">
         <f t="shared" si="0"/>
@@ -22953,7 +23172,7 @@
     <row r="38" spans="2:5" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B38" s="107" t="str">
         <f>'NB Command Set'!AQ27</f>
-        <v>#define ACKRDEVS 0x77 /* Acknowledge Read Device Signature command */</v>
+        <v>#define ACKRDEVS 0x77 /* Acknowledge Read Device Signature And Fuses command */</v>
       </c>
       <c r="D38" s="108">
         <f t="shared" si="0"/>
@@ -22967,7 +23186,7 @@
     <row r="39" spans="2:5" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B39" s="107" t="str">
         <f>'NB Command Set'!AQ28</f>
-        <v>// #define BLRCMD02 0x89 /* Command Unassigned Bootloader Cmd 11 */</v>
+        <v>#define WRITEEPR 0x89 /* Command Write Byte To Eeprom */</v>
       </c>
       <c r="D39" s="108">
         <f t="shared" si="0"/>
@@ -22981,7 +23200,7 @@
     <row r="40" spans="2:5" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B40" s="107" t="str">
         <f>'NB Command Set'!AQ29</f>
-        <v>// #define ACKBLC02 0x76 /* Acknowledge Unassigned Bootloader Cmd 11 command */</v>
+        <v>#define ACKWTEEP 0x76 /* Acknowledge Write Byte To Eeprom command */</v>
       </c>
       <c r="D40" s="108">
         <f t="shared" si="0"/>
@@ -22995,7 +23214,7 @@
     <row r="41" spans="2:5" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B41" s="107" t="str">
         <f>'NB Command Set'!AQ30</f>
-        <v>// #define BLRCMD03 0x8A /* Command Unassigned Bootloader Cmd 12 */</v>
+        <v>#define READEEPR 0x8A /* Command Read Byte From Eeprom */</v>
       </c>
       <c r="D41" s="108">
         <f t="shared" si="0"/>
@@ -23009,7 +23228,7 @@
     <row r="42" spans="2:5" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B42" s="107" t="str">
         <f>'NB Command Set'!AQ31</f>
-        <v>// #define ACKBLC03 0x75 /* Acknowledge Unassigned Bootloader Cmd 12 command */</v>
+        <v>#define ACKRDEEP 0x75 /* Acknowledge Read Byte From Eeprom command */</v>
       </c>
       <c r="D42" s="108">
         <f t="shared" si="0"/>
@@ -26273,7 +26492,7 @@
     </row>
     <row r="276" spans="2:5" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B276" s="104" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="277" spans="2:5" x14ac:dyDescent="0.2">
@@ -26314,7 +26533,7 @@
   <sheetData>
     <row r="2" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B2" s="134" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C2" s="135"/>
       <c r="D2" s="135"/>
@@ -26324,7 +26543,7 @@
       <c r="H2" s="135"/>
       <c r="I2" s="135"/>
       <c r="K2" s="136" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="L2" s="136"/>
       <c r="M2" s="136"/>
@@ -26334,20 +26553,20 @@
       <c r="Q2" s="136"/>
       <c r="R2" s="136"/>
       <c r="T2" s="137" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="U2" s="137"/>
       <c r="W2" s="114" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="X2" s="115" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="Z2" s="114" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="AA2" s="115" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.25">
@@ -26489,7 +26708,7 @@
         <v>FF</v>
       </c>
       <c r="AC6" s="119" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.25">
@@ -26563,7 +26782,7 @@
         <v>FF</v>
       </c>
       <c r="AC7" s="121" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.25">
@@ -26653,7 +26872,7 @@
         <v>FF</v>
       </c>
       <c r="AC9" s="123" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -26683,827 +26902,827 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="124" t="s">
+        <v>421</v>
+      </c>
+      <c r="C4" s="124" t="s">
+        <v>422</v>
+      </c>
+      <c r="D4" s="124" t="s">
+        <v>423</v>
+      </c>
+      <c r="E4" s="124" t="s">
+        <v>424</v>
+      </c>
+      <c r="F4" s="124" t="s">
+        <v>425</v>
+      </c>
+      <c r="G4" s="124" t="s">
+        <v>426</v>
+      </c>
+      <c r="H4" s="124" t="s">
+        <v>427</v>
+      </c>
+      <c r="I4" s="124" t="s">
+        <v>428</v>
+      </c>
+      <c r="J4" s="124" t="s">
         <v>429</v>
       </c>
-      <c r="C4" s="124" t="s">
+      <c r="K4" s="124" t="s">
         <v>430</v>
-      </c>
-      <c r="D4" s="124" t="s">
-        <v>431</v>
-      </c>
-      <c r="E4" s="124" t="s">
-        <v>432</v>
-      </c>
-      <c r="F4" s="124" t="s">
-        <v>433</v>
-      </c>
-      <c r="G4" s="124" t="s">
-        <v>434</v>
-      </c>
-      <c r="H4" s="124" t="s">
-        <v>435</v>
-      </c>
-      <c r="I4" s="124" t="s">
-        <v>436</v>
-      </c>
-      <c r="J4" s="124" t="s">
-        <v>437</v>
-      </c>
-      <c r="K4" s="124" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="124" t="s">
+        <v>431</v>
+      </c>
+      <c r="C5" s="124" t="s">
+        <v>432</v>
+      </c>
+      <c r="D5" s="124" t="s">
+        <v>433</v>
+      </c>
+      <c r="E5" s="124" t="s">
+        <v>434</v>
+      </c>
+      <c r="F5" s="124" t="s">
+        <v>435</v>
+      </c>
+      <c r="G5" s="124" t="s">
+        <v>436</v>
+      </c>
+      <c r="H5" s="124" t="s">
+        <v>437</v>
+      </c>
+      <c r="I5" s="124" t="s">
+        <v>438</v>
+      </c>
+      <c r="J5" s="124" t="s">
         <v>439</v>
       </c>
-      <c r="C5" s="124" t="s">
+      <c r="K5" s="124" t="s">
         <v>440</v>
-      </c>
-      <c r="D5" s="124" t="s">
-        <v>441</v>
-      </c>
-      <c r="E5" s="124" t="s">
-        <v>442</v>
-      </c>
-      <c r="F5" s="124" t="s">
-        <v>443</v>
-      </c>
-      <c r="G5" s="124" t="s">
-        <v>444</v>
-      </c>
-      <c r="H5" s="124" t="s">
-        <v>445</v>
-      </c>
-      <c r="I5" s="124" t="s">
-        <v>446</v>
-      </c>
-      <c r="J5" s="124" t="s">
-        <v>447</v>
-      </c>
-      <c r="K5" s="124" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="124" t="s">
+        <v>441</v>
+      </c>
+      <c r="C6" s="124" t="s">
+        <v>442</v>
+      </c>
+      <c r="D6" s="124" t="s">
+        <v>443</v>
+      </c>
+      <c r="E6" s="124" t="s">
+        <v>444</v>
+      </c>
+      <c r="F6" s="124" t="s">
+        <v>445</v>
+      </c>
+      <c r="G6" s="124" t="s">
+        <v>446</v>
+      </c>
+      <c r="H6" s="124" t="s">
+        <v>447</v>
+      </c>
+      <c r="I6" s="124" t="s">
+        <v>448</v>
+      </c>
+      <c r="J6" s="124" t="s">
         <v>449</v>
       </c>
-      <c r="C6" s="124" t="s">
+      <c r="K6" s="124" t="s">
         <v>450</v>
-      </c>
-      <c r="D6" s="124" t="s">
-        <v>451</v>
-      </c>
-      <c r="E6" s="124" t="s">
-        <v>452</v>
-      </c>
-      <c r="F6" s="124" t="s">
-        <v>453</v>
-      </c>
-      <c r="G6" s="124" t="s">
-        <v>454</v>
-      </c>
-      <c r="H6" s="124" t="s">
-        <v>455</v>
-      </c>
-      <c r="I6" s="124" t="s">
-        <v>456</v>
-      </c>
-      <c r="J6" s="124" t="s">
-        <v>457</v>
-      </c>
-      <c r="K6" s="124" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="124" t="s">
+        <v>451</v>
+      </c>
+      <c r="C7" s="124" t="s">
+        <v>452</v>
+      </c>
+      <c r="D7" s="124" t="s">
+        <v>453</v>
+      </c>
+      <c r="E7" s="124" t="s">
+        <v>454</v>
+      </c>
+      <c r="F7" s="124" t="s">
+        <v>455</v>
+      </c>
+      <c r="G7" s="124" t="s">
+        <v>456</v>
+      </c>
+      <c r="H7" s="124" t="s">
+        <v>457</v>
+      </c>
+      <c r="I7" s="124" t="s">
+        <v>458</v>
+      </c>
+      <c r="J7" s="124" t="s">
         <v>459</v>
       </c>
-      <c r="C7" s="124" t="s">
+      <c r="K7" s="124" t="s">
         <v>460</v>
-      </c>
-      <c r="D7" s="124" t="s">
-        <v>461</v>
-      </c>
-      <c r="E7" s="124" t="s">
-        <v>462</v>
-      </c>
-      <c r="F7" s="124" t="s">
-        <v>463</v>
-      </c>
-      <c r="G7" s="124" t="s">
-        <v>464</v>
-      </c>
-      <c r="H7" s="124" t="s">
-        <v>465</v>
-      </c>
-      <c r="I7" s="124" t="s">
-        <v>466</v>
-      </c>
-      <c r="J7" s="124" t="s">
-        <v>467</v>
-      </c>
-      <c r="K7" s="124" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="124" t="s">
+        <v>461</v>
+      </c>
+      <c r="C8" s="124" t="s">
+        <v>462</v>
+      </c>
+      <c r="D8" s="124" t="s">
+        <v>463</v>
+      </c>
+      <c r="E8" s="124" t="s">
+        <v>464</v>
+      </c>
+      <c r="F8" s="124" t="s">
+        <v>465</v>
+      </c>
+      <c r="G8" s="124" t="s">
+        <v>466</v>
+      </c>
+      <c r="H8" s="124" t="s">
+        <v>467</v>
+      </c>
+      <c r="I8" s="124" t="s">
+        <v>468</v>
+      </c>
+      <c r="J8" s="124" t="s">
         <v>469</v>
       </c>
-      <c r="C8" s="124" t="s">
+      <c r="K8" s="124" t="s">
         <v>470</v>
-      </c>
-      <c r="D8" s="124" t="s">
-        <v>471</v>
-      </c>
-      <c r="E8" s="124" t="s">
-        <v>472</v>
-      </c>
-      <c r="F8" s="124" t="s">
-        <v>473</v>
-      </c>
-      <c r="G8" s="124" t="s">
-        <v>474</v>
-      </c>
-      <c r="H8" s="124" t="s">
-        <v>475</v>
-      </c>
-      <c r="I8" s="124" t="s">
-        <v>476</v>
-      </c>
-      <c r="J8" s="124" t="s">
-        <v>477</v>
-      </c>
-      <c r="K8" s="124" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="124" t="s">
+        <v>471</v>
+      </c>
+      <c r="C9" s="124" t="s">
+        <v>472</v>
+      </c>
+      <c r="D9" s="124" t="s">
+        <v>473</v>
+      </c>
+      <c r="E9" s="124" t="s">
+        <v>474</v>
+      </c>
+      <c r="F9" s="124" t="s">
+        <v>475</v>
+      </c>
+      <c r="G9" s="124" t="s">
+        <v>476</v>
+      </c>
+      <c r="H9" s="124" t="s">
+        <v>477</v>
+      </c>
+      <c r="I9" s="124" t="s">
+        <v>478</v>
+      </c>
+      <c r="J9" s="124" t="s">
         <v>479</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="K9" s="124" t="s">
         <v>480</v>
-      </c>
-      <c r="D9" s="124" t="s">
-        <v>481</v>
-      </c>
-      <c r="E9" s="124" t="s">
-        <v>482</v>
-      </c>
-      <c r="F9" s="124" t="s">
-        <v>483</v>
-      </c>
-      <c r="G9" s="124" t="s">
-        <v>484</v>
-      </c>
-      <c r="H9" s="124" t="s">
-        <v>485</v>
-      </c>
-      <c r="I9" s="124" t="s">
-        <v>486</v>
-      </c>
-      <c r="J9" s="124" t="s">
-        <v>487</v>
-      </c>
-      <c r="K9" s="124" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="124" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="C10" s="124" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="D10" s="124" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="E10" s="124" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="F10" s="124" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="G10" s="124" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="H10" s="124" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="I10" s="124" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="J10" s="124" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K10" s="124" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="124" t="s">
+        <v>454</v>
+      </c>
+      <c r="C11" s="124" t="s">
+        <v>453</v>
+      </c>
+      <c r="D11" s="124" t="s">
+        <v>468</v>
+      </c>
+      <c r="E11" s="124" t="s">
+        <v>467</v>
+      </c>
+      <c r="F11" s="124" t="s">
+        <v>466</v>
+      </c>
+      <c r="G11" s="124" t="s">
+        <v>465</v>
+      </c>
+      <c r="H11" s="124" t="s">
+        <v>464</v>
+      </c>
+      <c r="I11" s="124" t="s">
+        <v>463</v>
+      </c>
+      <c r="J11" s="124" t="s">
         <v>462</v>
       </c>
-      <c r="C11" s="124" t="s">
+      <c r="K11" s="124" t="s">
         <v>461</v>
-      </c>
-      <c r="D11" s="124" t="s">
-        <v>476</v>
-      </c>
-      <c r="E11" s="124" t="s">
-        <v>475</v>
-      </c>
-      <c r="F11" s="124" t="s">
-        <v>474</v>
-      </c>
-      <c r="G11" s="124" t="s">
-        <v>473</v>
-      </c>
-      <c r="H11" s="124" t="s">
-        <v>472</v>
-      </c>
-      <c r="I11" s="124" t="s">
-        <v>471</v>
-      </c>
-      <c r="J11" s="124" t="s">
-        <v>470</v>
-      </c>
-      <c r="K11" s="124" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="124" t="s">
+        <v>476</v>
+      </c>
+      <c r="C12" s="124" t="s">
+        <v>475</v>
+      </c>
+      <c r="D12" s="124" t="s">
+        <v>474</v>
+      </c>
+      <c r="E12" s="124" t="s">
+        <v>473</v>
+      </c>
+      <c r="F12" s="124" t="s">
+        <v>472</v>
+      </c>
+      <c r="G12" s="124" t="s">
+        <v>471</v>
+      </c>
+      <c r="H12" s="124" t="s">
+        <v>470</v>
+      </c>
+      <c r="I12" s="124" t="s">
+        <v>469</v>
+      </c>
+      <c r="J12" s="124" t="s">
         <v>484</v>
       </c>
-      <c r="C12" s="124" t="s">
+      <c r="K12" s="124" t="s">
         <v>483</v>
-      </c>
-      <c r="D12" s="124" t="s">
-        <v>482</v>
-      </c>
-      <c r="E12" s="124" t="s">
-        <v>481</v>
-      </c>
-      <c r="F12" s="124" t="s">
-        <v>480</v>
-      </c>
-      <c r="G12" s="124" t="s">
-        <v>479</v>
-      </c>
-      <c r="H12" s="124" t="s">
-        <v>478</v>
-      </c>
-      <c r="I12" s="124" t="s">
-        <v>477</v>
-      </c>
-      <c r="J12" s="124" t="s">
-        <v>492</v>
-      </c>
-      <c r="K12" s="124" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="124" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="C13" s="124" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="D13" s="124" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="E13" s="124" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F13" s="124" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G13" s="124" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="H13" s="124" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="I13" s="124" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="J13" s="124" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="K13" s="124" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="124" t="s">
+        <v>424</v>
+      </c>
+      <c r="C14" s="124" t="s">
+        <v>423</v>
+      </c>
+      <c r="D14" s="124" t="s">
+        <v>422</v>
+      </c>
+      <c r="E14" s="124" t="s">
+        <v>421</v>
+      </c>
+      <c r="F14" s="124" t="s">
+        <v>436</v>
+      </c>
+      <c r="G14" s="124" t="s">
+        <v>435</v>
+      </c>
+      <c r="H14" s="124" t="s">
+        <v>434</v>
+      </c>
+      <c r="I14" s="124" t="s">
+        <v>433</v>
+      </c>
+      <c r="J14" s="124" t="s">
         <v>432</v>
       </c>
-      <c r="C14" s="124" t="s">
+      <c r="K14" s="124" t="s">
         <v>431</v>
-      </c>
-      <c r="D14" s="124" t="s">
-        <v>430</v>
-      </c>
-      <c r="E14" s="124" t="s">
-        <v>429</v>
-      </c>
-      <c r="F14" s="124" t="s">
-        <v>444</v>
-      </c>
-      <c r="G14" s="124" t="s">
-        <v>443</v>
-      </c>
-      <c r="H14" s="124" t="s">
-        <v>442</v>
-      </c>
-      <c r="I14" s="124" t="s">
-        <v>441</v>
-      </c>
-      <c r="J14" s="124" t="s">
-        <v>440</v>
-      </c>
-      <c r="K14" s="124" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="124" t="s">
+        <v>430</v>
+      </c>
+      <c r="C15" s="124" t="s">
+        <v>429</v>
+      </c>
+      <c r="D15" s="124" t="s">
+        <v>444</v>
+      </c>
+      <c r="E15" s="124" t="s">
+        <v>443</v>
+      </c>
+      <c r="F15" s="124" t="s">
+        <v>442</v>
+      </c>
+      <c r="G15" s="124" t="s">
+        <v>441</v>
+      </c>
+      <c r="H15" s="124" t="s">
+        <v>440</v>
+      </c>
+      <c r="I15" s="124" t="s">
+        <v>439</v>
+      </c>
+      <c r="J15" s="124" t="s">
         <v>438</v>
       </c>
-      <c r="C15" s="124" t="s">
+      <c r="K15" s="124" t="s">
         <v>437</v>
-      </c>
-      <c r="D15" s="124" t="s">
-        <v>452</v>
-      </c>
-      <c r="E15" s="124" t="s">
-        <v>451</v>
-      </c>
-      <c r="F15" s="124" t="s">
-        <v>450</v>
-      </c>
-      <c r="G15" s="124" t="s">
-        <v>449</v>
-      </c>
-      <c r="H15" s="124" t="s">
-        <v>448</v>
-      </c>
-      <c r="I15" s="124" t="s">
-        <v>447</v>
-      </c>
-      <c r="J15" s="124" t="s">
-        <v>446</v>
-      </c>
-      <c r="K15" s="124" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="124" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="C16" s="124" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="D16" s="124" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="E16" s="124" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F16" s="124" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="G16" s="124" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="H16" s="124" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="I16" s="124" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="J16" s="124" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="K16" s="124" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="124" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C17" s="124" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="D17" s="124" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="E17" s="124" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F17" s="124" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="G17" s="124" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="H17" s="124" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="I17" s="124" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="J17" s="124" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K17" s="124" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="124" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="C18" s="124" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="D18" s="124" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="E18" s="124" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F18" s="124" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G18" s="124" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="H18" s="124" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="I18" s="124" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="J18" s="124" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="K18" s="124" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="124" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="C19" s="124" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="D19" s="124" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="E19" s="124" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F19" s="124" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G19" s="124" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="H19" s="124" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="I19" s="124" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="J19" s="124" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="K19" s="124" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="124" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="C20" s="124" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="D20" s="124" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="E20" s="124" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F20" s="124" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G20" s="124" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="H20" s="124" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="I20" s="124" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="J20" s="124" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="K20" s="124" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="124" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="C21" s="124" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="D21" s="124" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E21" s="124" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F21" s="124" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G21" s="124" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="H21" s="124" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="I21" s="124" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="J21" s="124" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="K21" s="124" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="124" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="C22" s="124" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="D22" s="124" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="E22" s="124" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F22" s="124" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="G22" s="124" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="H22" s="124" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="I22" s="124" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="J22" s="124" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="K22" s="124" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="124" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C23" s="124" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="D23" s="124" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="E23" s="124" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="F23" s="124" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="G23" s="124" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="H23" s="124" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="I23" s="124" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="J23" s="124" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="K23" s="124" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="124" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C24" s="124" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="D24" s="124" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E24" s="124" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="F24" s="124" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="G24" s="124" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="H24" s="124" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="I24" s="124" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="J24" s="124" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="K24" s="124" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="124" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="C25" s="124" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="D25" s="124" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="E25" s="124" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="F25" s="124" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="G25" s="124" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="H25" s="124" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="I25" s="124" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="J25" s="124" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="K25" s="124" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="124" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C26" s="124" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="D26" s="124" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="E26" s="124" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="F26" s="124" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="G26" s="124" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="H26" s="124" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="I26" s="124" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="J26" s="124" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="K26" s="124" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="124" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="C27" s="124" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D27" s="124" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="E27" s="124" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="F27" s="124" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="G27" s="124" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="H27" s="124" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="I27" s="124" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="J27" s="124" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="K27" s="124" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="124" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="C28" s="124" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="D28" s="124" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="E28" s="124" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="F28" s="124" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="G28" s="124" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="H28" s="124" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="I28" s="124" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="J28" s="124" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K28" s="124" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="124" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C29" s="124" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D29" s="124" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="E29" s="124" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F29" s="124" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="G29" s="124" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H29" s="125"/>
       <c r="I29" s="125"/>
